--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail0 Features.xlsx
@@ -7826,7 +7826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7837,29 +7837,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7880,115 +7878,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -8005,72 +7993,66 @@
         <v>1.450891464783813e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.802657437114379</v>
+        <v>8.58338433520235e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.853484465253949</v>
+        <v>2.0445856947842e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.58338433520235e-07</v>
+        <v>0.06690454055416167</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.0445856947842e-06</v>
+        <v>0.2313297276497314</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.06690454055416167</v>
+        <v>0.05791666199683982</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2313297276497314</v>
+        <v>1.791358466792282</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05791666199683982</v>
+        <v>1.635734641930048</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.747345162000349</v>
+        <v>4.401070642042392</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.635734641930048</v>
+        <v>1.056221711030703e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.401070642042392</v>
+        <v>144900017.3874811</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.056221711030703e-15</v>
+        <v>8.086558796199479e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>144900017.3874811</v>
+        <v>22.17644692920522</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.086558796199479e-07</v>
+        <v>0.0001743649686014996</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>22.17644692920522</v>
+        <v>8.906233668059134</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001743649686014996</v>
+        <v>1.713237855507197</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.906233668059134</v>
+        <v>0.01383080335187657</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.713237855507197</v>
+        <v>3.145666013478219</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01383080335187657</v>
+        <v>0.9559628981833604</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.145666013478219</v>
+        <v>1.69528262224635</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9559628981833604</v>
+        <v>17</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.69528262224635</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2364362610445549</v>
       </c>
     </row>
@@ -8085,72 +8067,66 @@
         <v>1.238263850718154e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.316597184786065</v>
+        <v>7.21183623029781e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.532357436877418</v>
+        <v>2.053019336942355e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.21183623029781e-07</v>
+        <v>0.0587282709287223</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.053019336942355e-06</v>
+        <v>0.235900334554406</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0587282709287223</v>
+        <v>0.05903702760515604</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.235900334554406</v>
+        <v>1.786741932687636</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05903702760515604</v>
+        <v>1.590744077592024</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.743758174284943</v>
+        <v>5.068758950938512</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.590744077592024</v>
+        <v>7.962849223166121e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.068758950938512</v>
+        <v>185237739.363342</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>7.962849223166121e-16</v>
+        <v>6.298111560224784e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>185237739.363342</v>
+        <v>27.32294053238778</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.298111560224784e-07</v>
+        <v>0.0001672482666286822</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>27.32294053238778</v>
+        <v>10.43681977157497</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001672482666286822</v>
+        <v>1.30203947583949</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.43681977157497</v>
+        <v>0.01821788655014431</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.30203947583949</v>
+        <v>3.08618711014903</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01821788655014431</v>
+        <v>0.9552487531890841</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.08618711014903</v>
+        <v>1.704500507032153</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9552487531890841</v>
+        <v>29</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.704500507032153</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3072191298875294</v>
       </c>
     </row>
@@ -8165,72 +8141,66 @@
         <v>1.081582970987744e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.7456152572436451</v>
+        <v>6.145162231500617e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.105063014825012</v>
+        <v>2.059288116205897e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.145162231500617e-07</v>
+        <v>0.04942846743867258</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.059288116205897e-06</v>
+        <v>0.2425214990804432</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04942846743867258</v>
+        <v>0.06120902761400988</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2425214990804432</v>
+        <v>1.839635710624809</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06120902761400988</v>
+        <v>1.920916802627784</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.816823235810316</v>
+        <v>4.694005338441295</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.920916802627784</v>
+        <v>6.367285432239854e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.694005338441295</v>
+        <v>229261038.6859001</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.367285432239854e-16</v>
+        <v>5.161006239812624e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>229261038.6859001</v>
+        <v>33.4668494609</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.161006239812624e-07</v>
+        <v>0.0001691983759858802</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>33.4668494609</v>
+        <v>12.56061357494912</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001691983759858802</v>
+        <v>1.008802864916137</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.56061357494912</v>
+        <v>0.02669426084465461</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.008802864916137</v>
+        <v>2.802584710120544</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02669426084465461</v>
+        <v>0.9578497948287479</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.802584710120544</v>
+        <v>1.585087811504209</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9578497948287479</v>
+        <v>33</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.585087811504209</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3619074044865487</v>
       </c>
     </row>
@@ -8245,72 +8215,66 @@
         <v>9.709963136854316e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.157896576913258</v>
+        <v>5.262265465836276e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.7537526242017423</v>
+        <v>2.063806478784001e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.262265465836276e-07</v>
+        <v>0.03850076520338928</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.063806478784001e-06</v>
+        <v>0.246620197070132</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03850076520338928</v>
+        <v>0.06225703813403116</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.246620197070132</v>
+        <v>1.874720068317563</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.06225703813403116</v>
+        <v>1.663192365208512</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.86556023604838</v>
+        <v>5.311938564397805</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.663192365208512</v>
+        <v>4.73169935309638e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.311938564397805</v>
+        <v>306872420.7708384</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.73169935309638e-16</v>
+        <v>3.891228329291165e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>306872420.7708384</v>
+        <v>44.55873580798537</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.891228329291165e-07</v>
+        <v>0.0001711846078565521</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>44.55873580798537</v>
+        <v>11.92574755414315</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001711846078565521</v>
+        <v>1.083168307444436</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.92574755414315</v>
+        <v>0.02434646632512911</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.083168307444436</v>
+        <v>2.879724116734739</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02434646632512911</v>
+        <v>0.9601027111706048</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.879724116734739</v>
+        <v>1.494459029828551</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9601027111706048</v>
+        <v>33</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.494459029828551</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3440359735580931</v>
       </c>
     </row>
@@ -8325,72 +8289,66 @@
         <v>9.009774576414717e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3155800422818556</v>
+        <v>4.481664795397841e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.1867021746574999</v>
+        <v>2.06681499293328e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.481664795397841e-07</v>
+        <v>0.0255818583894751</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.06681499293328e-06</v>
+        <v>0.2435409844170278</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0255818583894751</v>
+        <v>0.05992054883750667</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2435409844170278</v>
+        <v>1.881831187272026</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05992054883750667</v>
+        <v>1.78930112775997</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.881936420508763</v>
+        <v>4.907991816834045</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.78930112775997</v>
+        <v>2.867555619399454e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.907991816834045</v>
+        <v>512680069.3024491</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.867555619399454e-16</v>
+        <v>2.329263182708797e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>512680069.3024491</v>
+        <v>75.37107663468684</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.329263182708797e-07</v>
+        <v>0.0001538475151315805</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>75.37107663468684</v>
+        <v>9.83687764624948</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001538475151315805</v>
+        <v>1.296798354551588</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.83687764624948</v>
+        <v>0.01488692585091759</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.296798354551588</v>
+        <v>3.156060268565493</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01488692585091759</v>
+        <v>0.9611775958046191</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.156060268565493</v>
+        <v>1.400012110096891</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9611775958046191</v>
+        <v>53</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.400012110096891</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3299975229305641</v>
       </c>
     </row>
@@ -8405,72 +8363,66 @@
         <v>8.668943188834299e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.562976123874414</v>
+        <v>3.729847806735556e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.562639363537758</v>
+        <v>2.068423369319082e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.729847806735556e-07</v>
+        <v>0.01061286724014971</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.068423369319082e-06</v>
+        <v>0.2286179142004592</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01061286724014971</v>
+        <v>0.05232850982042026</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2286179142004592</v>
+        <v>1.881342480160335</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05232850982042026</v>
+        <v>1.849383628676543</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.879955760951358</v>
+        <v>5.134292414270413</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.849383628676543</v>
+        <v>2.141110563668165e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.134292414270413</v>
+        <v>684927443.450615</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.141110563668165e-16</v>
+        <v>1.74497841389564e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>684927443.450615</v>
+        <v>100.4449783824709</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.74497841389564e-07</v>
+        <v>0.0001406921338708231</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>100.4449783824709</v>
+        <v>8.134563488516417</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001406921338708231</v>
+        <v>1.551742499238983</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.134563488516417</v>
+        <v>0.009309756516420239</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.551742499238983</v>
+        <v>3.337954600984891</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009309756516420239</v>
+        <v>0.9626542146721191</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.337954600984891</v>
+        <v>1.410418330477932</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9626542146721191</v>
+        <v>63</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.410418330477932</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3393998200010718</v>
       </c>
     </row>
@@ -8485,72 +8437,66 @@
         <v>8.625054867348061e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.593706642182691</v>
+        <v>3.252800145678549e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.5967969145448637</v>
+        <v>2.068643414630377e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.252800145678549e-07</v>
+        <v>-0.005400459808164429</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.068643414630377e-06</v>
+        <v>0.2002144098571091</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.005400459808164429</v>
+        <v>0.04006576328004272</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2002144098571091</v>
+        <v>1.882800635246721</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04006576328004272</v>
+        <v>1.890753886437086</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.881803925990327</v>
+        <v>5.105660528860692</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.890753886437086</v>
+        <v>1.645817226197513e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.105660528860692</v>
+        <v>893379425.0603791</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.645817226197513e-16</v>
+        <v>1.336618354837405e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>893379425.0603791</v>
+        <v>131.3570831391941</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.336618354837405e-07</v>
+        <v>0.0001278435559194007</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>131.3570831391941</v>
+        <v>8.570823065948135</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001278435559194007</v>
+        <v>1.341379660314599</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.570823065948135</v>
+        <v>0.009391260800584297</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.341379660314599</v>
+        <v>3.343337796926429</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009391260800584297</v>
+        <v>0.9610108716942788</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.343337796926429</v>
+        <v>1.431426746774687</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9610108716942788</v>
+        <v>63</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.431426746774687</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.3956309926256061</v>
       </c>
     </row>
@@ -8565,72 +8511,66 @@
         <v>8.77208176340477e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.5343801148286569</v>
+        <v>3.311887980572494e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.5989628427582474</v>
+        <v>2.067517384767018e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.311887980572494e-07</v>
+        <v>-0.019924923988661</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.067517384767018e-06</v>
+        <v>0.1658884499245208</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.019924923988661</v>
+        <v>0.02787876517638966</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1658884499245208</v>
+        <v>1.885627965468173</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02787876517638966</v>
+        <v>2.048235301184458</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.883043393207432</v>
+        <v>4.959983369697608</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.048235301184458</v>
+        <v>1.605707725565884e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.959983369697608</v>
+        <v>966237547.0194272</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.605707725565884e-16</v>
+        <v>1.24171054163093e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>966237547.0194272</v>
+        <v>149.9112813820803</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.24171054163093e-07</v>
+        <v>0.000134535799014911</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>149.9112813820803</v>
+        <v>10.18582512039202</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000134535799014911</v>
+        <v>1.221943785129824</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.18582512039202</v>
+        <v>0.01395822817483273</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.221943785129824</v>
+        <v>3.120468249306755</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01395822817483273</v>
+        <v>0.9602767174800445</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.120468249306755</v>
+        <v>1.397916636926463</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9602767174800445</v>
+        <v>63</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.397916636926463</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.4578203342293329</v>
       </c>
     </row>
@@ -8645,72 +8585,66 @@
         <v>8.989207572682554e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.488420545385936</v>
+        <v>3.350421542851037e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.6290548410913268</v>
+        <v>2.065208510401368e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.350421542851037e-07</v>
+        <v>-0.03146002576673625</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.065208510401368e-06</v>
+        <v>0.1339349146307703</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03146002576673625</v>
+        <v>0.01890336307551105</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1339349146307703</v>
+        <v>1.88440345736484</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01890336307551105</v>
+        <v>2.126927565132133</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.881764545261602</v>
+        <v>4.864967359127109</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.126927565132133</v>
+        <v>1.669041272105934e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.864967359127109</v>
+        <v>922740005.7649169</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.669041272105934e-16</v>
+        <v>1.300085360712894e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>922740005.7649169</v>
+        <v>142.1103719439161</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.300085360712894e-07</v>
+        <v>0.0001442422174391511</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>142.1103719439161</v>
+        <v>10.36144482772813</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001442422174391511</v>
+        <v>1.174946516263442</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.36144482772813</v>
+        <v>0.01548577795678495</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.174946516263442</v>
+        <v>3.014573793882332</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01548577795678495</v>
+        <v>0.9599969274679037</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.014573793882332</v>
+        <v>1.434280777662676</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9599969274679037</v>
+        <v>63</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.434280777662676</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.4812780516128324</v>
       </c>
     </row>
@@ -8725,72 +8659,66 @@
         <v>9.188494674953823e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.4812234960979054</v>
+        <v>3.368633782921019e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.6310332399841596</v>
+        <v>2.061933443601844e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.368633782921019e-07</v>
+        <v>-0.03986834882133119</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.061933443601844e-06</v>
+        <v>0.1090104414265798</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03986834882133119</v>
+        <v>0.01346081196398591</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1090104414265798</v>
+        <v>1.884063480175765</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01346081196398591</v>
+        <v>2.207537262572339</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.874851326218383</v>
+        <v>4.55828425262898</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.207537262572339</v>
+        <v>1.901183906732191e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.55828425262898</v>
+        <v>789271921.8048989</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.901183906732191e-16</v>
+        <v>1.518290057528034e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>789271921.8048989</v>
+        <v>118.4342831340235</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.518290057528034e-07</v>
+        <v>0.0001505571305599822</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>118.4342831340235</v>
+        <v>9.264750067954351</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001505571305599822</v>
+        <v>1.250289183645642</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.264750067954351</v>
+        <v>0.01292316070570129</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.250289183645642</v>
+        <v>3.054683038244825</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01292316070570129</v>
+        <v>0.9585211581988908</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.054683038244825</v>
+        <v>1.449584645932156</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9585211581988908</v>
+        <v>50</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.449584645932156</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.4857836034947163</v>
       </c>
     </row>
@@ -8805,72 +8733,66 @@
         <v>9.326210276170322e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.5014353676895182</v>
+        <v>3.368922031866588e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.5856751836731879</v>
+        <v>2.057992531092552e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.368922031866588e-07</v>
+        <v>-0.04454506137369899</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.057992531092552e-06</v>
+        <v>0.09599840992723503</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04454506137369899</v>
+        <v>0.01119627949094722</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.09599840992723503</v>
+        <v>1.90146071043883</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01119627949094722</v>
+        <v>1.965136882424515</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.89259301692452</v>
+        <v>4.760763211324599</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.965136882424515</v>
+        <v>2.680507221689174e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.760763211324599</v>
+        <v>553770771.5577637</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.680507221689174e-16</v>
+        <v>2.167397078550395e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>553770771.5577637</v>
+        <v>82.20098863687532</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.167397078550395e-07</v>
+        <v>0.0001559790263257065</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>82.20098863687532</v>
+        <v>8.92529544219307</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001559790263257065</v>
+        <v>1.312567520768001</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.92529544219307</v>
+        <v>0.01242542942020355</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.312567520768001</v>
+        <v>3.066445361197311</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01242542942020355</v>
+        <v>0.958343704210585</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.066445361197311</v>
+        <v>1.394212266655262</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.958343704210585</v>
+        <v>50</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.394212266655262</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.5213114156485991</v>
       </c>
     </row>
@@ -8885,72 +8807,66 @@
         <v>9.393168461068288e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.538246714155112</v>
+        <v>3.368922031866588e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.5070641316341065</v>
+        <v>2.053725680951912e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.368922031866588e-07</v>
+        <v>-0.04612744599072117</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.053725680951912e-06</v>
+        <v>0.09176705817615073</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.04612744599072117</v>
+        <v>0.01054719091430934</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.09176705817615073</v>
+        <v>1.901781381466953</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01054719091430934</v>
+        <v>2.016020189110201</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.89383214719516</v>
+        <v>4.771373548645055</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.016020189110201</v>
+        <v>4.130677580809718e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.771373548645055</v>
+        <v>350285572.9690588</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.130677580809718e-16</v>
+        <v>3.437357870542611e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>350285572.9690588</v>
+        <v>50.68340674165643</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.437357870542611e-07</v>
+        <v>0.0001537652099493524</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>50.68340674165643</v>
+        <v>10.45475513781581</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001537652099493524</v>
+        <v>1.194584753166895</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.45475513781581</v>
+        <v>0.01680683036891078</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.194584753166895</v>
+        <v>3.128835470563939</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01680683036891078</v>
+        <v>0.9581868968454675</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.128835470563939</v>
+        <v>1.396929200435082</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9581868968454675</v>
+        <v>50</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.396929200435082</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.6246907134189355</v>
       </c>
     </row>
@@ -8965,72 +8881,66 @@
         <v>9.385983867234267e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.5893071137397924</v>
+        <v>3.368922031866588e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.4009935099546182</v>
+        <v>2.049391122698397e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.368922031866588e-07</v>
+        <v>-0.04584829237305005</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.049391122698397e-06</v>
+        <v>0.09251624923743179</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04584829237305005</v>
+        <v>0.01065822937813484</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.09251624923743179</v>
+        <v>1.897470091837848</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01065822937813484</v>
+        <v>1.723729785474476</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.886477794741847</v>
+        <v>4.378587431872918</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.723729785474476</v>
+        <v>7.471107801697915e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.378587431872918</v>
+        <v>185049419.6821516</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>7.471107801697915e-16</v>
+        <v>6.482925934528134e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>185049419.6821516</v>
+        <v>25.58352940758006</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>6.482925934528134e-07</v>
+        <v>0.0001816670963382707</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>25.58352940758006</v>
+        <v>12.8606598322326</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001816670963382707</v>
+        <v>1.17704153788414</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.8606598322326</v>
+        <v>0.03004711485608298</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.17704153788414</v>
+        <v>3.031228176162815</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.03004711485608298</v>
+        <v>0.9590508820652121</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.031228176162815</v>
+        <v>1.415476896015628</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9590508820652121</v>
+        <v>50</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.415476896015628</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.5744925357216246</v>
       </c>
     </row>
@@ -9045,72 +8955,66 @@
         <v>9.291744486160565e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.6532344661886006</v>
+        <v>3.368922031866588e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.2571240392780836</v>
+        <v>2.045160284137198e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.368922031866588e-07</v>
+        <v>-0.04451345027689507</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.045160284137198e-06</v>
+        <v>0.09795171099067247</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04451345027689507</v>
+        <v>0.01156918065788913</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.09795171099067247</v>
+        <v>1.887177166553427</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01156918065788913</v>
+        <v>1.670478664379676</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.877207633237422</v>
+        <v>3.752048496545306</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.670478664379676</v>
+        <v>1.073947988706785e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.752048496545306</v>
+        <v>128287826.6445343</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.073947988706785e-15</v>
+        <v>9.327595199584592e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>128287826.6445343</v>
+        <v>17.67478519388398</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>9.327595199584592e-07</v>
+        <v>0.0002009268180181138</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>17.67478519388398</v>
+        <v>13.58967629583728</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002009268180181138</v>
+        <v>1.035509695062774</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>13.58967629583728</v>
+        <v>0.037107024469633</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.035509695062774</v>
+        <v>2.671597042508106</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.037107024469633</v>
+        <v>0.9587360482290356</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.671597042508106</v>
+        <v>1.431349057283317</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9587360482290356</v>
+        <v>47</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.431349057283317</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.4000765197668806</v>
       </c>
     </row>
@@ -9125,72 +9029,66 @@
         <v>9.092635650277557e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.7207955317153651</v>
+        <v>3.368922031866588e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.06227478269470721</v>
+        <v>2.041133683468341e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.368922031866588e-07</v>
+        <v>-0.04297119794278788</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.041133683468341e-06</v>
+        <v>0.1073812449827673</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04297119794278788</v>
+        <v>0.01336689404824456</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1073812449827673</v>
+        <v>1.843247346202037</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01336689404824456</v>
+        <v>1.6254725250184</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.81773889658794</v>
+        <v>3.800112218941857</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.6254725250184</v>
+        <v>1.046953255993148e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.800112218941857</v>
+        <v>134458447.6014904</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.046953255993148e-15</v>
+        <v>8.748611572097982e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>134458447.6014904</v>
+        <v>18.92794552721359</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.748611572097982e-07</v>
+        <v>0.0002122201309318284</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>18.92794552721359</v>
+        <v>13.36464893059772</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002122201309318284</v>
+        <v>0.9728951943442151</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>13.36464893059772</v>
+        <v>0.03790545273134803</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0.9728951943442151</v>
+        <v>2.27360815230418</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.03790545273134803</v>
+        <v>0.9577350480882375</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.27360815230418</v>
+        <v>1.506619769988702</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9577350480882375</v>
+        <v>48</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.506619769988702</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.298170740521293</v>
       </c>
     </row>
@@ -9205,72 +9103,66 @@
         <v>8.778828038831363e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.7699267972173937</v>
+        <v>3.368922031866588e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.1660925971608629</v>
+        <v>2.037317979204396e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.368922031866588e-07</v>
+        <v>-0.04257104605182747</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.037317979204396e-06</v>
+        <v>0.116526844318054</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04257104605182747</v>
+        <v>0.0153847835470594</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.116526844318054</v>
+        <v>1.746765254673457</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0153847835470594</v>
+        <v>1.583130742958137</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.68939247434861</v>
+        <v>5.628734541234154</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.583130742958137</v>
+        <v>2.018636729270613e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.628734541234154</v>
+        <v>76199587.42573769</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.018636729270613e-15</v>
+        <v>1.499211540400304e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>76199587.42573769</v>
+        <v>11.7209661262056</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.499211540400304e-06</v>
+        <v>0.0002304858682005172</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>11.7209661262056</v>
+        <v>9.86295312307009</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002304858682005172</v>
+        <v>1.491895666885298</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.86295312307009</v>
+        <v>0.02242116840197601</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.491895666885298</v>
+        <v>2.55441328732319</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02242116840197601</v>
+        <v>0.9558162128495631</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.55441328732319</v>
+        <v>1.74582130050459</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9558162128495631</v>
+        <v>48</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.74582130050459</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1963069754529104</v>
       </c>
     </row>
@@ -9285,72 +9177,66 @@
         <v>8.367698058398854e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.7780696797559856</v>
+        <v>3.368922031866588e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.3671427343932314</v>
+        <v>2.033631370107635e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.368922031866588e-07</v>
+        <v>-0.04341860431016821</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.033631370107635e-06</v>
+        <v>0.1241877967916886</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04341860431016821</v>
+        <v>0.01730714220327562</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1241877967916886</v>
+        <v>1.734652391014368</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01730714220327562</v>
+        <v>1.562496883782548</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.670012167721564</v>
+        <v>4.283979612392081</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.562496883782548</v>
+        <v>3.484856623810998e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.283979612392081</v>
+        <v>44594131.03690951</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.484856623810998e-15</v>
+        <v>2.55142479389935e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>44594131.03690951</v>
+        <v>6.930113159309673</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.55142479389935e-06</v>
+        <v>0.00023657151079928</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>6.930113159309673</v>
+        <v>9.305238193732473</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.00023657151079928</v>
+        <v>1.711001406469115</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.305238193732473</v>
+        <v>0.02048412571797398</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.711001406469115</v>
+        <v>2.604109208960565</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02048412571797398</v>
+        <v>0.9556328600871873</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.604109208960565</v>
+        <v>1.762579972459309</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9556328600871873</v>
+        <v>36</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.762579972459309</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1442518558038851</v>
       </c>
     </row>
@@ -9365,72 +9251,66 @@
         <v>7.900724739223595e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.7397680975870691</v>
+        <v>3.355112848839262e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.4987545338832717</v>
+        <v>2.030046670075722e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.355112848839262e-07</v>
+        <v>-0.04478314622617023</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.030046670075722e-06</v>
+        <v>0.1321841992741594</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04478314622617023</v>
+        <v>0.01947825788784385</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1321841992741594</v>
+        <v>1.72491585988036</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01947825788784385</v>
+        <v>1.55589080567269</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.655570388888682</v>
+        <v>3.974501470193802</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.55589080567269</v>
+        <v>4.048688662582307e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.974501470193802</v>
+        <v>39765750.07738201</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.048688662582307e-15</v>
+        <v>2.872299276114319e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>39765750.07738201</v>
+        <v>6.402251623457796</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.872299276114319e-06</v>
+        <v>0.0001848878277004117</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>6.402251623457796</v>
+        <v>9.974629775997702</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001848878277004117</v>
+        <v>1.282899448144249</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.974629775997702</v>
+        <v>0.01839508886068971</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.282899448144249</v>
+        <v>2.68030810448331</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01839508886068971</v>
+        <v>0.9548391493276042</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.68030810448331</v>
+        <v>1.797297887307035</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9548391493276042</v>
+        <v>31</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.797297887307035</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1469104270976632</v>
       </c>
     </row>
@@ -9445,72 +9325,66 @@
         <v>7.408106351927822e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.6534346836061123</v>
+        <v>3.276233723848415e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.5382306904392156</v>
+        <v>2.026560030626713e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.276233723848415e-07</v>
+        <v>-0.04620794043399301</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.026560030626713e-06</v>
+        <v>0.140794854476551</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04620794043399301</v>
+        <v>0.02195702799707734</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.140794854476551</v>
+        <v>1.706149217574532</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02195702799707734</v>
+        <v>1.574643321550075</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.628950271119145</v>
+        <v>3.918877149448413</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.574643321550075</v>
+        <v>4.164438059967287e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.918877149448413</v>
+        <v>39179016.97557779</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>4.164438059967287e-15</v>
+        <v>2.898417198356813e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>39179016.97557779</v>
+        <v>6.392393145584843</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.898417198356813e-06</v>
+        <v>0.0001691165230368093</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>6.392393145584843</v>
+        <v>10.78095731690765</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001691165230368093</v>
+        <v>1.108467974939466</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.78095731690765</v>
+        <v>0.01965625123384258</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.108467974939466</v>
+        <v>2.559903823749118</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01965625123384258</v>
+        <v>0.9536336943705629</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.559903823749118</v>
+        <v>1.796021203111076</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9536336943705629</v>
+        <v>34</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.796021203111076</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.159401191327108</v>
       </c>
     </row>
@@ -9525,72 +9399,66 @@
         <v>6.919435393628334e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.5228442266323385</v>
+        <v>3.136998249976581e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.4893192398848525</v>
+        <v>2.02323257647172e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.136998249976581e-07</v>
+        <v>-0.04654096016956564</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.02323257647172e-06</v>
+        <v>0.1494500009783651</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04654096016956564</v>
+        <v>0.02449819517415357</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1494500009783651</v>
+        <v>1.696893676998466</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02449819517415357</v>
+        <v>1.572611584886527</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.612078061553049</v>
+        <v>3.918837041914062</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.572611584886527</v>
+        <v>4.164523302704085e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.918837041914062</v>
+        <v>38753535.28430203</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.164523302704085e-15</v>
+        <v>2.927134607208608e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>38753535.28430203</v>
+        <v>6.254433088739749</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.927134607208608e-06</v>
+        <v>0.0001645311875656217</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>6.254433088739749</v>
+        <v>10.5041317214738</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001645311875656217</v>
+        <v>1.140967973131724</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.5041317214738</v>
+        <v>0.0181538419756981</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.140967973131724</v>
+        <v>2.568117206486221</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0181538419756981</v>
+        <v>0.9530057744456393</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.568117206486221</v>
+        <v>1.796300582139148</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9530057744456393</v>
+        <v>19</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.796300582139148</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1638347999862053</v>
       </c>
     </row>
@@ -9605,72 +9473,66 @@
         <v>6.457473645983274e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.355188431947944</v>
+        <v>2.967842808449433e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.3721687165188619</v>
+        <v>2.020127537653293e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.967842808449433e-07</v>
+        <v>-0.04643225242739464</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.020127537653293e-06</v>
+        <v>0.1577664705300613</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04643225242739464</v>
+        <v>0.02704107404612497</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1577664705300613</v>
+        <v>1.680519474971807</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02704107404612497</v>
+        <v>1.561539974981303</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.589191109396149</v>
+        <v>3.857832219889758</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.561539974981303</v>
+        <v>4.297273879929613e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.857832219889758</v>
+        <v>37807993.22972774</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.297273879929613e-15</v>
+        <v>2.989542403250346e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>37807993.22972774</v>
+        <v>6.142713876916645</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.989542403250346e-06</v>
+        <v>0.0001577585586743758</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>6.142713876916645</v>
+        <v>9.186056757412928</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001577585586743758</v>
+        <v>1.233484053340325</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.186056757412928</v>
+        <v>0.01331224122496416</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.233484053340325</v>
+        <v>2.778852679621984</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01331224122496416</v>
+        <v>0.9528701117083742</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.778852679621984</v>
+        <v>1.819764597064318</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9528701117083742</v>
+        <v>9</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.819764597064318</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1606036393256348</v>
       </c>
     </row>
@@ -9685,72 +9547,66 @@
         <v>6.034558580171614e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1613928333621515</v>
+        <v>2.78736149910918e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.2105047242022984</v>
+        <v>2.017219437425841e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.78736149910918e-07</v>
+        <v>-0.04691505930632649</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.017219437425841e-06</v>
+        <v>0.1660700060803172</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04691505930632649</v>
+        <v>0.02977283989132863</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1660700060803172</v>
+        <v>1.670552703759487</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02977283989132863</v>
+        <v>1.552398880126201</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.575804462796699</v>
+        <v>3.807653120972838</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.552398880126201</v>
+        <v>4.411283315395545e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.807653120972838</v>
+        <v>36058035.78617755</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>4.411283315395545e-15</v>
+        <v>3.119368135864945e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>36058035.78617755</v>
+        <v>5.735470919886239</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.119368135864945e-06</v>
+        <v>0.0001648894906140007</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>5.735470919886239</v>
+        <v>8.096391849486878</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001648894906140007</v>
+        <v>1.523850620841051</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.096391849486878</v>
+        <v>0.01080876349901696</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.523850620841051</v>
+        <v>2.877916354870973</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01080876349901696</v>
+        <v>0.9535813770620787</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.877916354870973</v>
+        <v>1.795409210473647</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9535813770620787</v>
+        <v>9</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.795409210473647</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1526974232619728</v>
       </c>
     </row>
@@ -9765,72 +9621,66 @@
         <v>5.657216430242175e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.04467317988018404</v>
+        <v>2.605231756173059e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.02441344576360871</v>
+        <v>2.01444952252516e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.605231756173059e-07</v>
+        <v>-0.04805810878389587</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.01444952252516e-06</v>
+        <v>0.1747470576758897</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04805810878389587</v>
+        <v>0.0328363826980734</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1747470576758897</v>
+        <v>1.658019380383204</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.0328363826980734</v>
+        <v>1.517151744820243</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.565594534663749</v>
+        <v>3.808974617456045</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.517151744820243</v>
+        <v>4.40822292002816e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.808974617456045</v>
+        <v>34350598.76628628</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.40822292002816e-15</v>
+        <v>3.221630370775635e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>34350598.76628628</v>
+        <v>5.201542743262206</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.221630370775635e-06</v>
+        <v>0.0001637590630845687</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>5.201542743262206</v>
+        <v>8.843023715931473</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001637590630845687</v>
+        <v>1.324642855598529</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.843023715931473</v>
+        <v>0.01280580618190668</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.324642855598529</v>
+        <v>2.814624096371476</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01280580618190668</v>
+        <v>0.9529987312468976</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.814624096371476</v>
+        <v>1.79781326657891</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9529987312468976</v>
+        <v>9</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.79781326657891</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1542240802757213</v>
       </c>
     </row>
@@ -9845,72 +9695,66 @@
         <v>5.331545948966541e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.2451692430177215</v>
+        <v>2.420864694703808e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.1692906999605115</v>
+        <v>2.011776845472651e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.420864694703808e-07</v>
+        <v>-0.04937925571340141</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.011776845472651e-06</v>
+        <v>0.1832580921779059</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.04937925571340141</v>
+        <v>0.03600999054469391</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1832580921779059</v>
+        <v>1.657595617287665</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.03600999054469391</v>
+        <v>1.521958100866392</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.565468513760883</v>
+        <v>3.826236750830818</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.521958100866392</v>
+        <v>4.368537095950171e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.826236750830818</v>
+        <v>34801859.01093894</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>4.368537095950171e-15</v>
+        <v>3.186797460960352e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>34801859.01093894</v>
+        <v>5.291038412390916</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.186797460960352e-06</v>
+        <v>0.000160247648872254</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>5.291038412390916</v>
+        <v>10.2922230374592</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.000160247648872254</v>
+        <v>1.131359492676159</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.2922230374592</v>
+        <v>0.01697501021759081</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.131359492676159</v>
+        <v>2.632780612471597</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01697501021759081</v>
+        <v>0.9542755355245028</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.632780612471597</v>
+        <v>1.827175146325448</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9542755355245028</v>
+        <v>9</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.827175146325448</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1661467762655773</v>
       </c>
     </row>
@@ -9925,72 +9769,66 @@
         <v>5.064532945897142e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.4178646857483099</v>
+        <v>2.237961695219483e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.3549097475323304</v>
+        <v>2.009182860599163e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.237961695219483e-07</v>
+        <v>-0.05057306531335996</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.009182860599163e-06</v>
+        <v>0.1909540722443928</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05057306531335996</v>
+        <v>0.03900816129212756</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1909540722443928</v>
+        <v>1.657194771701072</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.03900816129212756</v>
+        <v>1.502082384303421</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.568240097266919</v>
+        <v>3.859783303654804</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.502082384303421</v>
+        <v>4.292930515787516e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.859783303654804</v>
+        <v>35430287.92602464</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>4.292930515787516e-15</v>
+        <v>3.133260531141589e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>35430287.92602464</v>
+        <v>5.388938439822311</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.133260531141589e-06</v>
+        <v>0.0001548091047514975</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>5.388938439822311</v>
+        <v>10.04701851893354</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001548091047514975</v>
+        <v>1.151572031993881</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>10.04701851893354</v>
+        <v>0.01562683061446064</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.151572031993881</v>
+        <v>2.675693707225713</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01562683061446064</v>
+        <v>0.954770733290063</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.675693707225713</v>
+        <v>1.838473784536379</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.954770733290063</v>
+        <v>14</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.838473784536379</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1703582689926642</v>
       </c>
     </row>
@@ -10005,72 +9843,66 @@
         <v>4.860432682196117e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.5442666683221759</v>
+        <v>2.062994427789246e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.5280011322883564</v>
+        <v>2.006652699902302e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.062994427789246e-07</v>
+        <v>-0.05153936770074053</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.006652699902302e-06</v>
+        <v>0.1973753416006046</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.05153936770074053</v>
+        <v>0.04160029787087781</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1973753416006046</v>
+        <v>1.662013368911648</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.04160029787087781</v>
+        <v>1.477403044603889</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.576287029823306</v>
+        <v>3.942315821961675</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.477403044603889</v>
+        <v>4.115066704672234e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.942315821961675</v>
+        <v>38742905.31184444</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>4.115066704672234e-15</v>
+        <v>2.894684485029012e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>38742905.31184444</v>
+        <v>6.176767434451441</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.894684485029012e-06</v>
+        <v>0.0001486763347789655</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>6.176767434451441</v>
+        <v>8.984947782007847</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001486763347789655</v>
+        <v>1.228772814894086</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.984947782007847</v>
+        <v>0.01200253444775971</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.228772814894086</v>
+        <v>2.841389832129923</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01200253444775971</v>
+        <v>0.9545618881983464</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.841389832129923</v>
+        <v>1.798157482783954</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9545618881983464</v>
+        <v>48</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.798157482783954</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1712583864558229</v>
       </c>
     </row>
@@ -10085,72 +9917,66 @@
         <v>4.720361736148755e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.6156554416575173</v>
+        <v>1.899576811121713e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.6914548218127528</v>
+        <v>2.004171795733365e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.899576811121713e-07</v>
+        <v>-0.0521628671704164</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.004171795733365e-06</v>
+        <v>0.2020382704336116</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.0521628671704164</v>
+        <v>0.04352832551756169</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.2020382704336116</v>
+        <v>1.666464536170344</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.04352832551756169</v>
+        <v>1.453360306933982</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.580772955121127</v>
+        <v>4.121444359538431</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.453360306933982</v>
+        <v>3.765137346080566e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.121444359538431</v>
+        <v>42330486.23262775</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.765137346080566e-15</v>
+        <v>2.657406093533052e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>42330486.23262775</v>
+        <v>6.746636899890707</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.657406093533052e-06</v>
+        <v>0.0001480199049993056</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>6.746636899890707</v>
+        <v>8.106867818592679</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001480199049993056</v>
+        <v>1.370029846941848</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.106867818592679</v>
+        <v>0.009728061445110649</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.370029846941848</v>
+        <v>2.931628888121219</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.009728061445110649</v>
+        <v>0.9548841250307218</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.931628888121219</v>
+        <v>1.808459177231931</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9548841250307218</v>
+        <v>48</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.808459177231931</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1744492682561208</v>
       </c>
     </row>
@@ -10165,72 +9991,66 @@
         <v>4.642326494597697e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.6359084014339655</v>
+        <v>1.752147883733928e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.8461933009527463</v>
+        <v>2.001725024081403e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.752147883733928e-07</v>
+        <v>-0.05252971053941327</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.001725024081403e-06</v>
+        <v>0.204808495051387</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05252971053941327</v>
+        <v>0.04469524598710368</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.204808495051387</v>
+        <v>1.670003674285727</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.04469524598710368</v>
+        <v>1.425303743355092</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.58560238695454</v>
+        <v>4.545665906531774</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.425303743355092</v>
+        <v>3.095171224588536e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.545665906531774</v>
+        <v>51375836.25454228</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.095171224588536e-15</v>
+        <v>2.192493065048995e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>51375836.25454228</v>
+        <v>8.16963186817808</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.192493065048995e-06</v>
+        <v>0.0001477900808891674</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>8.16963186817808</v>
+        <v>8.102438441856329</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001477900808891674</v>
+        <v>1.42636190910128</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.102438441856329</v>
+        <v>0.009702346201708787</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.42636190910128</v>
+        <v>2.926601809054102</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.009702346201708787</v>
+        <v>0.9550339323958063</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.926601809054102</v>
+        <v>1.803230486730135</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9550339323958063</v>
+        <v>54</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.803230486730135</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1909547048693223</v>
       </c>
     </row>
@@ -10245,72 +10065,66 @@
         <v>4.621920978040683e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.6197650856015465</v>
+        <v>1.625600600104815e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.986153814002761</v>
+        <v>1.999287284474265e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.625600600104815e-07</v>
+        <v>-0.05290015215513365</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.999287284474265e-06</v>
+        <v>0.2058559670251674</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05290015215513365</v>
+        <v>0.04516649213036355</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.2058559670251674</v>
+        <v>1.687134722709437</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.04516649213036355</v>
+        <v>1.455650112563373</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.604026713890934</v>
+        <v>4.921951298775257</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.455650112563373</v>
+        <v>2.265086287189067e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.921951298775257</v>
+        <v>72100920.18727744</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.265086287189067e-15</v>
+        <v>1.571744689841028e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>72100920.18727744</v>
+        <v>11.77514776468125</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.571744689841028e-06</v>
+        <v>0.0001399432348788539</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>11.77514776468125</v>
+        <v>9.13245996866719</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001399432348788539</v>
+        <v>1.211800279548696</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.13245996866719</v>
+        <v>0.01167152119639879</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.211800279548696</v>
+        <v>2.845380659996158</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01167152119639879</v>
+        <v>0.9553447566080682</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.845380659996158</v>
+        <v>1.778503244479736</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9553447566080682</v>
+        <v>68</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.778503244479736</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2339841722577561</v>
       </c>
     </row>
@@ -10325,72 +10139,66 @@
         <v>4.652625798151655e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.5865172629441486</v>
+        <v>1.52548168247761e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.097785725714491</v>
+        <v>1.996826002697461e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.52548168247761e-07</v>
+        <v>-0.05344228406082565</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.996826002697461e-06</v>
+        <v>0.2053072509543127</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05344228406082565</v>
+        <v>0.04500086011624083</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.2053072509543127</v>
+        <v>1.730853961056232</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.04500086011624083</v>
+        <v>1.595417416478431</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.656754382774082</v>
+        <v>3.774899283794982</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.595417416478431</v>
+        <v>1.907458356854656e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.774899283794982</v>
+        <v>84837126.86979464</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.907458356854656e-15</v>
+        <v>1.351175347763593e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>84837126.86979464</v>
+        <v>13.7286226974111</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.351175347763593e-06</v>
+        <v>0.0001130524003925526</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>13.7286226974111</v>
+        <v>8.174153649275484</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001130524003925526</v>
+        <v>1.412391601816651</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.174153649275484</v>
+        <v>0.007553798256576015</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.412391601816651</v>
+        <v>3.26859874614131</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.007553798256576015</v>
+        <v>0.9585238488697166</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.26859874614131</v>
+        <v>1.781808778220464</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9585238488697166</v>
+        <v>67</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.781808778220464</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2785535184287702</v>
       </c>
     </row>
@@ -10405,72 +10213,66 @@
         <v>4.72606099538033e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.5529186876424493</v>
+        <v>1.540606513813247e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.167490575940455</v>
+        <v>1.994302407788331e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.540606513813247e-07</v>
+        <v>-0.05434649175199043</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.994302407788331e-06</v>
+        <v>0.2033478553598992</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05434649175199043</v>
+        <v>0.04429957651227646</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2033478553598992</v>
+        <v>1.807850637833296</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.04429957651227646</v>
+        <v>1.547445632933329</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.746837112404086</v>
+        <v>4.206006782613261</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.547445632933329</v>
+        <v>1.53983435113021e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.206006782613261</v>
+        <v>96476704.00055456</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.53983435113021e-15</v>
+        <v>1.228106768557586e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>96476704.00055456</v>
+        <v>14.33239997980926</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.228106768557586e-06</v>
+        <v>0.0001129401414018217</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>14.33239997980926</v>
+        <v>8.460941526658766</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001129401414018217</v>
+        <v>2.100898247590533</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.460941526658766</v>
+        <v>0.008085105932198199</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>2.100898247590533</v>
+        <v>3.563950077677037</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.008085105932198199</v>
+        <v>0.9590684527674108</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.563950077677037</v>
+        <v>1.633697532999549</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9590684527674108</v>
+        <v>67</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.633697532999549</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.4279917576692215</v>
       </c>
     </row>
@@ -10485,72 +10287,66 @@
         <v>4.833670748844222e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.5280852159904336</v>
+        <v>1.597611937526028e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.190425376076819</v>
+        <v>1.99168595973566e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.597611937526028e-07</v>
+        <v>-0.05509949934006022</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1.99168595973566e-06</v>
+        <v>0.1999083902968036</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.05509949934006022</v>
+        <v>0.04299615421210513</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1999083902968036</v>
+        <v>1.827392296992673</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.04299615421210513</v>
+        <v>1.632823890116888</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.777795336457</v>
+        <v>4.726482220746392</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.632823890116888</v>
+        <v>7.102391339800058e-16</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.726482220746392</v>
+        <v>207200266.6818171</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>7.102391339800058e-16</v>
+        <v>5.724716891707247e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>207200266.6818171</v>
+        <v>30.49195135243703</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>5.724716891707247e-07</v>
+        <v>0.0001142318858739621</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>30.49195135243703</v>
+        <v>8.090172540053757</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001142318858739621</v>
+        <v>1.384585038751821</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.090172540053757</v>
+        <v>0.007476578794203654</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.384585038751821</v>
+        <v>3.335113202482139</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.007476578794203654</v>
+        <v>0.9604702537376665</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.335113202482139</v>
+        <v>1.602701322803006</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9604702537376665</v>
+        <v>67</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.602701322803006</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.5024251498223337</v>
       </c>
     </row>
@@ -10565,72 +10361,66 @@
         <v>4.968974778283993e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.5119521700455695</v>
+        <v>1.669137312622679e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.17561666128187</v>
+        <v>1.988987369672165e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.669137312622679e-07</v>
+        <v>-0.05493664160294701</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1.988987369672165e-06</v>
+        <v>0.1950957390341003</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05493664160294701</v>
+        <v>0.04107824796596479</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1950957390341003</v>
+        <v>1.835342909217081</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.04107824796596479</v>
+        <v>1.782085969561634</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.793328472407665</v>
+        <v>4.170111538099419</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.782085969561634</v>
+        <v>4.006888389898442e-16</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.170111538099419</v>
+        <v>347107968.1491666</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>4.006888389898442e-16</v>
+        <v>3.405573224379292e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>347107968.1491666</v>
+        <v>48.27657065764872</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>3.405573224379292e-07</v>
+        <v>0.0001667109904546756</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>48.27657065764872</v>
+        <v>11.00826131145572</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001667109904546756</v>
+        <v>1.127912523371787</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>11.00826131145572</v>
+        <v>0.02020234075405385</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.127912523371787</v>
+        <v>2.846971220442355</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.02020234075405385</v>
+        <v>0.9603032212159567</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.846971220442355</v>
+        <v>1.625322270688629</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9603032212159567</v>
+        <v>67</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.625322270688629</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.4539296554741469</v>
       </c>
     </row>
@@ -10645,72 +10435,66 @@
         <v>5.124324805127393e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.4999775972755565</v>
+        <v>1.741392139344016e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.143251610602779</v>
+        <v>1.986234639200334e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.741392139344016e-07</v>
+        <v>-0.05414330400209164</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.986234639200334e-06</v>
+        <v>0.1894657804568858</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.05414330400209164</v>
+        <v>0.03882791406227015</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1894657804568858</v>
+        <v>1.867554362786542</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.03882791406227015</v>
+        <v>1.915667683916352</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.849081601282107</v>
+        <v>4.273562393830234</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.915667683916352</v>
+        <v>3.737661737916718e-16</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.273562393830234</v>
+        <v>370379518.0390239</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.737661737916718e-16</v>
+        <v>3.208871685569722e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>370379518.0390239</v>
+        <v>51.27361277104009</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>3.208871685569722e-07</v>
+        <v>0.0002133885385441888</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>51.27361277104009</v>
+        <v>13.2412992048076</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0002133885385441888</v>
+        <v>1.000927958789891</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>13.2412992048076</v>
+        <v>0.03741384022828289</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.000927958789891</v>
+        <v>2.420657605300522</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.03741384022828289</v>
+        <v>0.9611812750418254</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.420657605300522</v>
+        <v>1.446062440585365</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9611812750418254</v>
+        <v>64</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.446062440585365</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.5579832647320249</v>
       </c>
     </row>
@@ -10725,72 +10509,66 @@
         <v>5.28807040108823e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.4870394333097454</v>
+        <v>1.790826555818536e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.114833176574804</v>
+        <v>1.983438482422951e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.790826555818536e-07</v>
+        <v>-0.05333285461630356</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.983438482422951e-06</v>
+        <v>0.1836610296902808</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05333285461630356</v>
+        <v>0.0365757971845752</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1836610296902808</v>
+        <v>1.879883710427265</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.0365757971845752</v>
+        <v>2.115620551984184</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.875282233600834</v>
+        <v>4.059475409713038</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.115620551984184</v>
+        <v>4.142287733494867e-16</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.059475409713038</v>
+        <v>332469220.3055938</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>4.142287733494867e-16</v>
+        <v>3.58065359883744e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>332469220.3055938</v>
+        <v>45.78710157574167</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>3.58065359883744e-07</v>
+        <v>0.000235698521852489</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>45.78710157574167</v>
+        <v>13.06328537439469</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.000235698521852489</v>
+        <v>1.070386897919205</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>13.06328537439469</v>
+        <v>0.04022181717394397</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.070386897919205</v>
+        <v>2.469932868094595</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.04022181717394397</v>
+        <v>0.9617367112388208</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.469932868094595</v>
+        <v>1.398190144686731</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9617367112388208</v>
+        <v>59</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.398190144686731</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.6634223423826957</v>
       </c>
     </row>
@@ -10805,72 +10583,66 @@
         <v>5.446240262476317e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.4694272998574064</v>
+        <v>1.817303623790601e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.103626438381352</v>
+        <v>1.980586170239308e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.817303623790601e-07</v>
+        <v>-0.05304285024035028</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1.980586170239308e-06</v>
+        <v>0.1780170528329288</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05304285024035028</v>
+        <v>0.03450367948625366</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1780170528329288</v>
+        <v>1.910240612363096</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.03450367948625366</v>
+        <v>1.859601352250813</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.922385776406828</v>
+        <v>4.364285843126464</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.859601352250813</v>
+        <v>3.258781324109073e-16</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.364285843126464</v>
+        <v>431998943.4474212</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.258781324109073e-16</v>
+        <v>2.775537913553846e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>431998943.4474212</v>
+        <v>60.81638310183959</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>2.775537913553846e-07</v>
+        <v>0.0002280527951716504</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>60.81638310183959</v>
+        <v>12.34420055157679</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0002280527951716504</v>
+        <v>1.165059805465365</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>12.34420055157679</v>
+        <v>0.03475052238534786</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.165059805465365</v>
+        <v>2.741612062026005</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.03475052238534786</v>
+        <v>0.9625076254789809</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.741612062026005</v>
+        <v>1.230312657793123</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9625076254789809</v>
+        <v>59</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.230312657793123</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.9542512805188352</v>
       </c>
     </row>
@@ -11247,7 +11019,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.372304048366055</v>
+        <v>1.391455666243746</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.259128543638137</v>
@@ -11336,7 +11108,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.402072344780755</v>
+        <v>1.42010089136506</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.231225586695031</v>
@@ -11425,7 +11197,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.395482657158976</v>
+        <v>1.412296302694393</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.176793511919767</v>
@@ -11514,7 +11286,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.420317958571048</v>
+        <v>1.434483062889715</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.242286106079621</v>
@@ -11603,7 +11375,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.361618465107153</v>
+        <v>1.375294797184479</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.873188529468108</v>
@@ -11692,7 +11464,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.33315297806606</v>
+        <v>1.349486044542878</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.90543770978758</v>
@@ -11781,7 +11553,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.333695226999612</v>
+        <v>1.350395051747435</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.898204303361857</v>
@@ -11870,7 +11642,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.358710180718508</v>
+        <v>1.376029639668293</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.762369543725088</v>
@@ -11959,7 +11731,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.347538066419819</v>
+        <v>1.361564643388927</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.921601204627114</v>
@@ -12048,7 +11820,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.369641689376553</v>
+        <v>1.38619065087251</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.871171052507935</v>
@@ -12137,7 +11909,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.378728656069658</v>
+        <v>1.393716121477518</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.885523599629417</v>
@@ -12226,7 +11998,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.340122804353467</v>
+        <v>1.357959044725484</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.872476082950256</v>
@@ -12315,7 +12087,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.354719781657264</v>
+        <v>1.372207870715217</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.782225132043748</v>
@@ -12404,7 +12176,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.350216025425566</v>
+        <v>1.365836958967057</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.824916251292787</v>
@@ -12493,7 +12265,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.357575643454602</v>
+        <v>1.375567040560364</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.875491168652117</v>
@@ -12582,7 +12354,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.369058829124266</v>
+        <v>1.383426729113341</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.812220698961285</v>
@@ -12671,7 +12443,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.363764759806612</v>
+        <v>1.376176758401279</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.80156760149653</v>
@@ -12760,7 +12532,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.341384414934336</v>
+        <v>1.352138133435536</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.824691019545625</v>
@@ -12849,7 +12621,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.350286378756111</v>
+        <v>1.35884989818638</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.842447974768382</v>
@@ -12938,7 +12710,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.417625756840427</v>
+        <v>1.419444250568215</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.106333694791797</v>
@@ -13027,7 +12799,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.425311094063701</v>
+        <v>1.426781571959056</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.122382416539611</v>
@@ -13116,7 +12888,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.415025044692568</v>
+        <v>1.417328597446082</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.109409249732735</v>
@@ -13205,7 +12977,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.411720990782253</v>
+        <v>1.413794491205873</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.143022153454487</v>
@@ -13294,7 +13066,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.436595823173947</v>
+        <v>1.43638792379259</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.088554766440159</v>
@@ -13383,7 +13155,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.428308888047039</v>
+        <v>1.429289649777234</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.137104012689236</v>
@@ -13472,7 +13244,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.459635149821884</v>
+        <v>1.456217945836306</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.125585514445843</v>
@@ -13561,7 +13333,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.515138492038716</v>
+        <v>1.504619976966058</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.063482222003152</v>
@@ -13650,7 +13422,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.480542310225387</v>
+        <v>1.469605277034822</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.062657968010548</v>
@@ -13739,7 +13511,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.477823997244881</v>
+        <v>1.465452136264425</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.080846384925894</v>
@@ -13828,7 +13600,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.47467711528772</v>
+        <v>1.461044258263852</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.004589505779408</v>
@@ -13917,7 +13689,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.503947866409148</v>
+        <v>1.480749935821557</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.045471566208718</v>
@@ -14006,7 +13778,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.467481431396811</v>
+        <v>1.458335627731056</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.143149805483027</v>
@@ -14095,7 +13867,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.495265569712633</v>
+        <v>1.485226487957405</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.122153788926707</v>
@@ -14184,7 +13956,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.453693845684346</v>
+        <v>1.443020664905482</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.093919821917391</v>
@@ -14273,7 +14045,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.447171281318794</v>
+        <v>1.445164631711165</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.062357597227759</v>
@@ -14362,7 +14134,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.474087475847876</v>
+        <v>1.470607309850273</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.995690981107896</v>
@@ -14451,7 +14223,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.477030439402769</v>
+        <v>1.473283063454626</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.096941419425046</v>
@@ -14540,7 +14312,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.427991606276319</v>
+        <v>1.432812746024474</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.087595566041616</v>
@@ -14629,7 +14401,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.384646021488089</v>
+        <v>1.394650281758361</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.102093252081374</v>
@@ -14718,7 +14490,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.389728870899939</v>
+        <v>1.398741189279018</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.039817828873358</v>
@@ -14807,7 +14579,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.38075936322627</v>
+        <v>1.39394872621571</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.086921193939502</v>
@@ -14896,7 +14668,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.274420859791676</v>
+        <v>1.278955085063534</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.635968114923936</v>
@@ -14985,7 +14757,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.269750219744221</v>
+        <v>1.279985062674074</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.618381478387798</v>
@@ -15074,7 +14846,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.268872131936026</v>
+        <v>1.282153609747918</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.619145342260433</v>
@@ -15163,7 +14935,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.267069290227215</v>
+        <v>1.279987528828824</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.620248324380843</v>
@@ -15252,7 +15024,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.280364957322426</v>
+        <v>1.297878387852711</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.59684767350065</v>
@@ -15341,7 +15113,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.281878452715159</v>
+        <v>1.29740008304484</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.615334932812129</v>
@@ -15430,7 +15202,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.286559642858769</v>
+        <v>1.302291727186309</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.601002285747939</v>
@@ -15519,7 +15291,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.310302964521888</v>
+        <v>1.32776638899296</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.577538368327589</v>
@@ -15608,7 +15380,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.307277647490866</v>
+        <v>1.324212315059109</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.565835285761765</v>
@@ -15697,7 +15469,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.303427994721678</v>
+        <v>1.319957757526602</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.571438189804488</v>
@@ -15786,7 +15558,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.274266346325978</v>
+        <v>1.288323094829381</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.604991529428286</v>
@@ -15875,7 +15647,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.290841852218154</v>
+        <v>1.306014852446537</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.575579463878408</v>
@@ -15964,7 +15736,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.328401813458091</v>
+        <v>1.343911830112819</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.571465196565348</v>
@@ -16053,7 +15825,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.297401661860621</v>
+        <v>1.309685195982257</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.563330483273967</v>
@@ -16142,7 +15914,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.313226671971309</v>
+        <v>1.324630054713247</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.522766849342812</v>
@@ -16231,7 +16003,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.468915026216069</v>
+        <v>1.490336915650638</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.827244784708096</v>
@@ -16320,7 +16092,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.439769246386108</v>
+        <v>1.45888134134411</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.014963080893634</v>
@@ -16409,7 +16181,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.41510986530971</v>
+        <v>1.430560936734156</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.021293135797715</v>
@@ -16498,7 +16270,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.391518716260923</v>
+        <v>1.403554865068127</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.052411534058788</v>
@@ -16587,7 +16359,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.379338637639092</v>
+        <v>1.392316569705086</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.097259114357731</v>
@@ -16676,7 +16448,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.387934452393735</v>
+        <v>1.402907116732935</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.119003098598673</v>
@@ -16765,7 +16537,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.357057735657751</v>
+        <v>1.373676021423918</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.126194147220656</v>
@@ -16854,7 +16626,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.364384095017014</v>
+        <v>1.382719310326683</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.13140821519204</v>
@@ -16943,7 +16715,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.364622668944011</v>
+        <v>1.383186870932534</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.141479119092043</v>
@@ -17032,7 +16804,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.347010126325006</v>
+        <v>1.364102303693296</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.338926990365255</v>
@@ -17121,7 +16893,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.391445910858552</v>
+        <v>1.409387491825621</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.135628796509312</v>
@@ -17210,7 +16982,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.376467198147589</v>
+        <v>1.39269321876871</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.193761737441584</v>
@@ -17299,7 +17071,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.390619017938185</v>
+        <v>1.4058649679251</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.076703612700469</v>
@@ -17388,7 +17160,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.404085642792969</v>
+        <v>1.42192407726569</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.173883981084222</v>
@@ -17477,7 +17249,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.395454639019267</v>
+        <v>1.405193255183177</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.186588821751934</v>
@@ -17566,7 +17338,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.400461261261031</v>
+        <v>1.415336848179448</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.106390107518398</v>
@@ -17655,7 +17427,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.434642626093785</v>
+        <v>1.451246579207684</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.190948662736384</v>
@@ -17744,7 +17516,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.454872361938837</v>
+        <v>1.472233075197599</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.251227128100356</v>
@@ -17833,7 +17605,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.451236870172051</v>
+        <v>1.470092733630941</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.23313748414444</v>
@@ -17922,7 +17694,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.469818961520574</v>
+        <v>1.488080226933507</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.130228048892676</v>
@@ -18011,7 +17783,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.463785971681813</v>
+        <v>1.478533317718685</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.144998735213314</v>
@@ -18100,7 +17872,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.517091585411648</v>
+        <v>1.524072218268047</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.085995961923454</v>
@@ -18189,7 +17961,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.495341910729552</v>
+        <v>1.502642721819977</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.074790868850424</v>
@@ -18278,7 +18050,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.4950961523333</v>
+        <v>1.497880344215511</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.050346319058175</v>
@@ -18367,7 +18139,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.487569832409502</v>
+        <v>1.467537946665591</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.769418248386756</v>
@@ -18653,7 +18425,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.300577972283935</v>
+        <v>1.317070881876502</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.231360947126436</v>
@@ -18742,7 +18514,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.328831522897278</v>
+        <v>1.348833031248775</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.22650530020816</v>
@@ -18831,7 +18603,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.316817279200881</v>
+        <v>1.335367917210331</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.323206914258981</v>
@@ -18920,7 +18692,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.338433891901217</v>
+        <v>1.353509707284008</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.184714033212142</v>
@@ -19009,7 +18781,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.316543800702905</v>
+        <v>1.336537162452683</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.246977576862444</v>
@@ -19098,7 +18870,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.29771127683815</v>
+        <v>1.312310327994207</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.276462224057306</v>
@@ -19187,7 +18959,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.303299719160969</v>
+        <v>1.317206929662553</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.107011428204642</v>
@@ -19276,7 +19048,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.332071791765362</v>
+        <v>1.35071821818858</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.990660553177357</v>
@@ -19365,7 +19137,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.323211081561864</v>
+        <v>1.336586025308047</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.186518213556809</v>
@@ -19454,7 +19226,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.341850108459549</v>
+        <v>1.356010838994441</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.160836791193191</v>
@@ -19543,7 +19315,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.355954708695266</v>
+        <v>1.369368750662047</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.183053493361637</v>
@@ -19632,7 +19404,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.326077971138084</v>
+        <v>1.340600568491152</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.202774384265598</v>
@@ -19721,7 +19493,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.33120826481378</v>
+        <v>1.343640168626757</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.885636886628124</v>
@@ -19810,7 +19582,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.329365801689491</v>
+        <v>1.341401239250679</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.100120214615215</v>
@@ -19899,7 +19671,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.33860848836477</v>
+        <v>1.35518983149742</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.141293907344513</v>
@@ -19988,7 +19760,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.350170415727962</v>
+        <v>1.365442431139536</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.122944540422421</v>
@@ -20077,7 +19849,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.340353898772957</v>
+        <v>1.353642421174071</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.144623168616942</v>
@@ -20166,7 +19938,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.321717791693684</v>
+        <v>1.332051498210391</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.161764086049272</v>
@@ -20255,7 +20027,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.329414600420392</v>
+        <v>1.343705061896748</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.954033015680267</v>
@@ -20344,7 +20116,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.334789408777624</v>
+        <v>1.333933129063365</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.065240808616462</v>
@@ -20433,7 +20205,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.357943074080892</v>
+        <v>1.361999209612084</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.123211720521379</v>
@@ -20522,7 +20294,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.355944744494284</v>
+        <v>1.363359429996888</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.038153583402941</v>
@@ -20611,7 +20383,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.345383834024813</v>
+        <v>1.350844425336044</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.074013972246127</v>
@@ -20700,7 +20472,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.392265753320558</v>
+        <v>1.405592712668329</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.037362310379253</v>
@@ -20789,7 +20561,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.374049977499508</v>
+        <v>1.390742447172551</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.068017529618809</v>
@@ -20878,7 +20650,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.394905118654821</v>
+        <v>1.412782876347045</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.111759326489594</v>
@@ -20967,7 +20739,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.448849674985766</v>
+        <v>1.463330619106243</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.990137252880752</v>
@@ -21056,7 +20828,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.422020671913247</v>
+        <v>1.434848993546497</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.048980794948362</v>
@@ -21145,7 +20917,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.425371785271106</v>
+        <v>1.442379707904893</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.057031074589427</v>
@@ -21234,7 +21006,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.412591704530008</v>
+        <v>1.431682131317565</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.033704880071538</v>
@@ -21323,7 +21095,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.427283901630077</v>
+        <v>1.445658126133469</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.028194555841278</v>
@@ -21412,7 +21184,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.411094051015051</v>
+        <v>1.435061076853704</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.110310057132863</v>
@@ -21501,7 +21273,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.39055435762737</v>
+        <v>1.422691681297404</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.176622310878952</v>
@@ -21590,7 +21362,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.352674088445842</v>
+        <v>1.381909213337941</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.05242003656361</v>
@@ -21679,7 +21451,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.337881484267248</v>
+        <v>1.370184999742058</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.05842497576376</v>
@@ -21768,7 +21540,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.348341355476211</v>
+        <v>1.384461125523544</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.967012807359757</v>
@@ -21857,7 +21629,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.36121230269697</v>
+        <v>1.395667690892821</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.044179942341363</v>
@@ -21946,7 +21718,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.343159396023644</v>
+        <v>1.382055017510611</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.1079211853399</v>
@@ -22035,7 +21807,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.298903881823648</v>
+        <v>1.329440152185516</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.973069152844386</v>
@@ -22124,7 +21896,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.30763512131318</v>
+        <v>1.342638953345837</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.097241275910036</v>
@@ -22213,7 +21985,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.309328498318073</v>
+        <v>1.342811057543393</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.146189538701444</v>
@@ -22302,7 +22074,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.297026104607485</v>
+        <v>1.333749710538349</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.154445601804829</v>
@@ -22391,7 +22163,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.312260635906117</v>
+        <v>1.354899340401673</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.141683271746675</v>
@@ -22480,7 +22252,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.3102965843742</v>
+        <v>1.351039062090481</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.012675336787323</v>
@@ -22569,7 +22341,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.316956948376126</v>
+        <v>1.357221674824215</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.14600275920737</v>
@@ -22658,7 +22430,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.329985349595374</v>
+        <v>1.371815847680231</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.106486516597664</v>
@@ -22747,7 +22519,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.338206924434234</v>
+        <v>1.3772910788761</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.929343910161326</v>
@@ -22836,7 +22608,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.375024556086939</v>
+        <v>1.412988307915013</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.962434960675405</v>
@@ -22925,7 +22697,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.441192553053552</v>
+        <v>1.480293941841622</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.983323562637398</v>
@@ -23014,7 +22786,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.450053422571922</v>
+        <v>1.491220805971559</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.988706795857193</v>
@@ -23103,7 +22875,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.460688998109061</v>
+        <v>1.498768903942011</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.033468490655823</v>
@@ -23192,7 +22964,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.405266230330344</v>
+        <v>1.437061472853146</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.884748281804741</v>
@@ -23281,7 +23053,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.435235788612006</v>
+        <v>1.465705045337659</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.944595963468198</v>
@@ -23370,7 +23142,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.502739450812523</v>
+        <v>1.537597344632887</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.096460495165383</v>
@@ -23459,7 +23231,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.453645147426977</v>
+        <v>1.480180666510265</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.949710291798245</v>
@@ -23548,7 +23320,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.465208906183497</v>
+        <v>1.486484688782337</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.859611596225467</v>
@@ -23637,7 +23409,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.476576923997631</v>
+        <v>1.501394525971944</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.980042577747808</v>
@@ -23726,7 +23498,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.412782047024158</v>
+        <v>1.437654345434338</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.996339017871148</v>
@@ -23815,7 +23587,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.405380858163034</v>
+        <v>1.42906695547818</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.064206962292127</v>
@@ -23904,7 +23676,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.376474622765444</v>
+        <v>1.396662451339056</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.068448645784098</v>
@@ -23993,7 +23765,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.357133614634437</v>
+        <v>1.373892469189189</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.116434743621405</v>
@@ -24082,7 +23854,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.355927185443728</v>
+        <v>1.374987465155616</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.124978942728065</v>
@@ -24171,7 +23943,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.315645927386819</v>
+        <v>1.33194335878337</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.07127422738411</v>
@@ -24260,7 +24032,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.311099903062078</v>
+        <v>1.327611459662822</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.046063826851885</v>
@@ -24349,7 +24121,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.30767948180986</v>
+        <v>1.32268747657422</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.085570708944216</v>
@@ -24438,7 +24210,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.289505856266652</v>
+        <v>1.301171116640868</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.122103844626825</v>
@@ -24527,7 +24299,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.321000454252182</v>
+        <v>1.335997112677564</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.057698174716656</v>
@@ -24616,7 +24388,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.311330571110644</v>
+        <v>1.326361451448623</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.084829770502469</v>
@@ -24705,7 +24477,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.319124856838942</v>
+        <v>1.330543973388309</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.095254649967758</v>
@@ -24794,7 +24566,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.335010102823274</v>
+        <v>1.349268231640328</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.027856930347158</v>
@@ -24883,7 +24655,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.328285615221311</v>
+        <v>1.334122373744878</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.033076515483941</v>
@@ -24972,7 +24744,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.330050506716365</v>
+        <v>1.34166473487456</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.990235306712728</v>
@@ -25061,7 +24833,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.327597300594694</v>
+        <v>1.341379149289666</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.047624978769866</v>
@@ -25150,7 +24922,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.322944747619032</v>
+        <v>1.340729507017736</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.022879987143733</v>
@@ -25239,7 +25011,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.320307495321156</v>
+        <v>1.338201793267437</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.020381832094517</v>
@@ -25328,7 +25100,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.348230010633863</v>
+        <v>1.371846499541628</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.023827548072838</v>
@@ -25417,7 +25189,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.348402080683146</v>
+        <v>1.36990092214277</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.065335844673862</v>
@@ -25506,7 +25278,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.400161678505195</v>
+        <v>1.418687573877878</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.097834660976835</v>
@@ -25595,7 +25367,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.382759941145951</v>
+        <v>1.397848272474324</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.026961780995633</v>
@@ -25684,7 +25456,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.389606882056725</v>
+        <v>1.404985848488124</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.055175527478957</v>
@@ -25773,7 +25545,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.46057213438914</v>
+        <v>1.486147219842053</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.058411984181643</v>
@@ -26059,7 +25831,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.599510712238453</v>
+        <v>1.589350958491925</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.947854492726143</v>
@@ -26148,7 +25920,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.613281223861156</v>
+        <v>1.60464780857805</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.987647995078967</v>
@@ -26237,7 +26009,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.597499643825633</v>
+        <v>1.588826075120731</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.65295372299198</v>
@@ -26326,7 +26098,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.594493023624148</v>
+        <v>1.582747921075218</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.035997999236578</v>
@@ -26415,7 +26187,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.61973271057313</v>
+        <v>1.608597271421721</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.785030130990577</v>
@@ -26504,7 +26276,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.603484386375112</v>
+        <v>1.596593277835988</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.849551744867986</v>
@@ -26593,7 +26365,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.598979546324177</v>
+        <v>1.591218529670867</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.680729510329112</v>
@@ -26682,7 +26454,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.602787122533229</v>
+        <v>1.592305203699929</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.570895112936693</v>
@@ -26771,7 +26543,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.594932960346225</v>
+        <v>1.58803762902624</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.571385671687949</v>
@@ -26860,7 +26632,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.600881672009767</v>
+        <v>1.592832939282361</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.7421732274281</v>
@@ -26949,7 +26721,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.603379320275117</v>
+        <v>1.598763980619784</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.551535491857926</v>
@@ -27038,7 +26810,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.608237140973642</v>
+        <v>1.602812718507496</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.636500823221557</v>
@@ -27127,7 +26899,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.620814759202483</v>
+        <v>1.611078572831629</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.375603445028861</v>
@@ -27216,7 +26988,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.615144804494471</v>
+        <v>1.605626043926508</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.746661271505804</v>
@@ -27305,7 +27077,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.615490172606251</v>
+        <v>1.602574892967179</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.571622040347786</v>
@@ -27394,7 +27166,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.614682928403021</v>
+        <v>1.599173447061366</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.508089484845612</v>
@@ -27483,7 +27255,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.598124078390389</v>
+        <v>1.579661572580887</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.645971976462825</v>
@@ -27572,7 +27344,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.589768185021616</v>
+        <v>1.570064796641611</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.610314660353712</v>
@@ -27661,7 +27433,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.557422566554232</v>
+        <v>1.542818494617292</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.539784616348118</v>
@@ -27750,7 +27522,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.512209993240349</v>
+        <v>1.496757356639983</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.386566102563869</v>
@@ -27839,7 +27611,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.536106631792642</v>
+        <v>1.505143343548616</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.383135684750723</v>
@@ -27928,7 +27700,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.531396680689437</v>
+        <v>1.499222582452039</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.347145675034944</v>
@@ -28017,7 +27789,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.542002952045747</v>
+        <v>1.514362644074953</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.480179170692794</v>
@@ -28106,7 +27878,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.55632000789412</v>
+        <v>1.5289769810393</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.462172176725123</v>
@@ -28195,7 +27967,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.557555062735637</v>
+        <v>1.528263916622578</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.511903327332128</v>
@@ -28284,7 +28056,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.560953641877097</v>
+        <v>1.528064212897547</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.417165165752868</v>
@@ -28373,7 +28145,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.559964820588215</v>
+        <v>1.527070959310748</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.422492633292971</v>
@@ -28462,7 +28234,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.540885326217312</v>
+        <v>1.505846863636617</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.40046723266017</v>
@@ -28551,7 +28323,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.534808469054919</v>
+        <v>1.502639671848744</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.424123714676341</v>
@@ -28640,7 +28412,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.540930911637197</v>
+        <v>1.507507111611151</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.432172346585769</v>
@@ -28729,7 +28501,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.553439372253237</v>
+        <v>1.518127386345429</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.445580116792646</v>
@@ -28818,7 +28590,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.566026249890925</v>
+        <v>1.533688400655103</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.501412233990639</v>
@@ -28907,7 +28679,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.576527915933133</v>
+        <v>1.542635665925654</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.553593189752608</v>
@@ -28996,7 +28768,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.605798319104564</v>
+        <v>1.569218108436476</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.117088962611203</v>
@@ -29085,7 +28857,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.599693132844172</v>
+        <v>1.564401676930929</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.084574415234647</v>
@@ -29174,7 +28946,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.589143244958347</v>
+        <v>1.563547866131029</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.075358108428516</v>
@@ -29263,7 +29035,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.596042007759805</v>
+        <v>1.575347986213392</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.044140234275662</v>
@@ -29352,7 +29124,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.593861551623219</v>
+        <v>1.578676500591231</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.132659977506251</v>
@@ -29441,7 +29213,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.573730202906301</v>
+        <v>1.562077779816321</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.069380636998462</v>
@@ -29530,7 +29302,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.557691740422622</v>
+        <v>1.550017062011852</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.831216101793181</v>
@@ -29619,7 +29391,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.55721965851499</v>
+        <v>1.551493232896045</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.96778098717122</v>
@@ -29708,7 +29480,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.519269857435048</v>
+        <v>1.523754825800637</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.487768679137226</v>
@@ -29797,7 +29569,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.531824059864777</v>
+        <v>1.538946750503829</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.550902838783384</v>
@@ -29886,7 +29658,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.535630973407363</v>
+        <v>1.544592421902119</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.663654483188091</v>
@@ -29975,7 +29747,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.533132158656461</v>
+        <v>1.541084613700297</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.496558453697312</v>
@@ -30064,7 +29836,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.530536187106971</v>
+        <v>1.540503445613616</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.606832614638481</v>
@@ -30153,7 +29925,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.529843411040279</v>
+        <v>1.534877404253335</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.536902693016496</v>
@@ -30242,7 +30014,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.53007278823103</v>
+        <v>1.535018825247401</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.528272083416044</v>
@@ -30331,7 +30103,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.542501341360526</v>
+        <v>1.546278709016509</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.477526440230101</v>
@@ -30420,7 +30192,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.546168627509561</v>
+        <v>1.548012854430281</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.504906859597304</v>
@@ -30509,7 +30281,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.552004893702215</v>
+        <v>1.550323833370341</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.393097946078913</v>
@@ -30598,7 +30370,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.532746190526353</v>
+        <v>1.532271660093142</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.384915663557156</v>
@@ -30687,7 +30459,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.532436037006138</v>
+        <v>1.524765500495254</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.443249566334272</v>
@@ -30776,7 +30548,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.549016541534903</v>
+        <v>1.535591798802021</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.4129773945672</v>
@@ -30865,7 +30637,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.563207317446589</v>
+        <v>1.543530447255298</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.508950830733441</v>
@@ -30954,7 +30726,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.570084748731715</v>
+        <v>1.552626408601385</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.264912875618694</v>
@@ -31043,7 +30815,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.621957462844373</v>
+        <v>1.593319803883658</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.902570051412731</v>
@@ -31132,7 +30904,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.605187057673095</v>
+        <v>1.576842053759984</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.31307678209659</v>
@@ -31221,7 +30993,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.614788507706973</v>
+        <v>1.564201982230689</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.263782597847512</v>
@@ -31310,7 +31082,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.605650776891078</v>
+        <v>1.556859377283785</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.13609557451805</v>
@@ -31399,7 +31171,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.598985660923255</v>
+        <v>1.55023486530446</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.19385159492866</v>
@@ -31488,7 +31260,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.600624051298686</v>
+        <v>1.55468775708629</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.325941700109137</v>
@@ -31577,7 +31349,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.594382818162481</v>
+        <v>1.553150505173352</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.1746085229917</v>
@@ -31666,7 +31438,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.592975104431803</v>
+        <v>1.550752593310552</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.093830810669431</v>
@@ -31755,7 +31527,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.589441336598567</v>
+        <v>1.545117571178346</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.952948161715911</v>
@@ -31844,7 +31616,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.572129348677655</v>
+        <v>1.530630251762934</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.798812908450659</v>
@@ -31933,7 +31705,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.579753908005476</v>
+        <v>1.537233334647485</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.823947316042778</v>
@@ -32022,7 +31794,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.572985884822061</v>
+        <v>1.532126085922932</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.686688598135718</v>
@@ -32111,7 +31883,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.585608731197595</v>
+        <v>1.538155830651637</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.856948481828947</v>
@@ -32200,7 +31972,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.58051373794153</v>
+        <v>1.533072743420051</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.68770825033857</v>
@@ -32289,7 +32061,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.574406757085716</v>
+        <v>1.523235907077889</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.729174979317685</v>
@@ -32378,7 +32150,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.599220451568122</v>
+        <v>1.544952910265489</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.707717899250313</v>
@@ -32467,7 +32239,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.610301768750081</v>
+        <v>1.554349683254937</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.829255205289151</v>
@@ -32556,7 +32328,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.593162469821858</v>
+        <v>1.555475136915079</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.821341647112502</v>
@@ -32645,7 +32417,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.601023219961347</v>
+        <v>1.562895522635201</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.783503711221693</v>
@@ -32734,7 +32506,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.607713279977752</v>
+        <v>1.570048896674561</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.803001531024021</v>
@@ -32823,7 +32595,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.603802851109109</v>
+        <v>1.563723192157345</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.778092550518328</v>
@@ -32912,7 +32684,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.613050171254925</v>
+        <v>1.5688611745088</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.89995284622144</v>
@@ -33001,7 +32773,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.607277500098412</v>
+        <v>1.561736074919494</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.640234892078424</v>
@@ -33090,7 +32862,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.612760357310149</v>
+        <v>1.569501239657065</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.689363843795016</v>
@@ -33179,7 +32951,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.672460288188755</v>
+        <v>1.631890329303151</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.8382891960262</v>
@@ -33465,7 +33237,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.74180860518823</v>
+        <v>1.726265976528436</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.751126127756748</v>
@@ -33554,7 +33326,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.732380190588465</v>
+        <v>1.718881546274761</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.653820501723364</v>
@@ -33643,7 +33415,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.723937943961416</v>
+        <v>1.712464526010518</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.6473222193914</v>
@@ -33732,7 +33504,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.722936935519337</v>
+        <v>1.706437015305461</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.721080487748304</v>
@@ -33821,7 +33593,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.697868727835668</v>
+        <v>1.680767748038353</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.99096027091198</v>
@@ -33910,7 +33682,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.690569634622872</v>
+        <v>1.678084023240985</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.211186680547393</v>
@@ -33999,7 +33771,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.688868851179445</v>
+        <v>1.679080920477701</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.125784417857959</v>
@@ -34088,7 +33860,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.697750022910334</v>
+        <v>1.686116982367486</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.013826920462523</v>
@@ -34177,7 +33949,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.699221928703516</v>
+        <v>1.688089142509404</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.209334632913811</v>
@@ -34266,7 +34038,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.67687237800203</v>
+        <v>1.664160501657182</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.134256146657308</v>
@@ -34355,7 +34127,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.650403803575927</v>
+        <v>1.641104745941504</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.989594532467073</v>
@@ -34444,7 +34216,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.635546977906778</v>
+        <v>1.628936694463289</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.954017646339589</v>
@@ -34533,7 +34305,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.635720047941792</v>
+        <v>1.630898601191645</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.878059903083545</v>
@@ -34622,7 +34394,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.627932416992014</v>
+        <v>1.614246442697993</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.862599906242083</v>
@@ -34711,7 +34483,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.62519718432635</v>
+        <v>1.610599914036533</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.845157511944433</v>
@@ -34800,7 +34572,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.629891347055959</v>
+        <v>1.61425730129936</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.546597759274603</v>
@@ -34889,7 +34661,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.613889992846504</v>
+        <v>1.59485664068336</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.868749008709064</v>
@@ -34978,7 +34750,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606929196585805</v>
+        <v>1.590489064137459</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.791217191509982</v>
@@ -35067,7 +34839,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.579259010133144</v>
+        <v>1.568862122473244</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.695105839080532</v>
@@ -35156,7 +34928,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.54474713432393</v>
+        <v>1.539984234477372</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.71533189609891</v>
@@ -35245,7 +35017,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548825223153651</v>
+        <v>1.535213496126733</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.568951913830675</v>
@@ -35334,7 +35106,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.53645369149917</v>
+        <v>1.52129423386026</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.706941938972691</v>
@@ -35423,7 +35195,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.523029916479716</v>
+        <v>1.510116017136232</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.51653013210765</v>
@@ -35512,7 +35284,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.507134662072407</v>
+        <v>1.501144522739533</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.415785009761535</v>
@@ -35601,7 +35373,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.509246058673213</v>
+        <v>1.505919760449046</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.727163743827233</v>
@@ -35690,7 +35462,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.538490764057748</v>
+        <v>1.528352974558465</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.45944359656846</v>
@@ -35779,7 +35551,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.553012540306332</v>
+        <v>1.539967247868556</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.579886807568646</v>
@@ -35868,7 +35640,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.531677225656853</v>
+        <v>1.523238332831896</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.633514184867223</v>
@@ -35957,7 +35729,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.525408445851951</v>
+        <v>1.516786649008923</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.581372814131135</v>
@@ -36046,7 +35818,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.516813856633662</v>
+        <v>1.506093772245162</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.699643729968884</v>
@@ -36135,7 +35907,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.528634902978761</v>
+        <v>1.51225560039728</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.621190611980318</v>
@@ -36224,7 +35996,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.546589635072566</v>
+        <v>1.529938067106595</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.63752659547754</v>
@@ -36313,7 +36085,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.537033614663496</v>
+        <v>1.519683627835148</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.73728435179779</v>
@@ -36402,7 +36174,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.566180658982433</v>
+        <v>1.539849902946926</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.599206028898782</v>
@@ -36491,7 +36263,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.573095059293251</v>
+        <v>1.545090009065073</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.793459463232382</v>
@@ -36580,7 +36352,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.571505961072709</v>
+        <v>1.544814935291179</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.688531890440236</v>
@@ -36669,7 +36441,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.595788540746107</v>
+        <v>1.56412085681394</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.832953795702259</v>
@@ -36758,7 +36530,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.682869840860106</v>
+        <v>1.657493603083124</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.782205324030395</v>
@@ -36847,7 +36619,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.713455973680964</v>
+        <v>1.681614423463657</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.007940277341296</v>
@@ -36936,7 +36708,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.704906710127963</v>
+        <v>1.676392316503203</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.965536700841603</v>
@@ -37025,7 +36797,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.696292889556114</v>
+        <v>1.673215807084588</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.877186213301662</v>
@@ -37114,7 +36886,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.652001948844585</v>
+        <v>1.641796018810056</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.888166090287763</v>
@@ -37203,7 +36975,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.665141235245664</v>
+        <v>1.652509407114833</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.910257389955547</v>
@@ -37292,7 +37064,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.654835893204906</v>
+        <v>1.643000607331581</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.879910432687596</v>
@@ -37381,7 +37153,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.66877545988764</v>
+        <v>1.659108646041371</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.850819841759984</v>
@@ -37470,7 +37242,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.609758615605182</v>
+        <v>1.609611019534994</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.218201618828028</v>
@@ -37559,7 +37331,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.607862199867056</v>
+        <v>1.61201510953492</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.296098365191102</v>
@@ -37648,7 +37420,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.617503358634254</v>
+        <v>1.619636946009559</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.223140565055876</v>
@@ -37737,7 +37509,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.615555241631917</v>
+        <v>1.61856550577727</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.221238564705622</v>
@@ -37826,7 +37598,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.610045970150595</v>
+        <v>1.615858211939786</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.242107041110246</v>
@@ -37915,7 +37687,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.609836698166192</v>
+        <v>1.616465814901207</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.178381997592794</v>
@@ -38004,7 +37776,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.609219423098438</v>
+        <v>1.618243556153087</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.249349828795979</v>
@@ -38093,7 +37865,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.543123665644292</v>
+        <v>1.542650712203876</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.259498885743796</v>
@@ -38182,7 +37954,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.519197688686278</v>
+        <v>1.515364763693133</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.949528955572366</v>
@@ -38271,7 +38043,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.520717664641871</v>
+        <v>1.510852544363514</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.001792096696702</v>
@@ -38360,7 +38132,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.536239383745429</v>
+        <v>1.518160620522711</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.089040871512577</v>
@@ -38449,7 +38221,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.571669193218458</v>
+        <v>1.548023852617704</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.030329648879396</v>
@@ -38538,7 +38310,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.567761388037676</v>
+        <v>1.551244772766126</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.044923997961319</v>
@@ -38627,7 +38399,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.587452037635827</v>
+        <v>1.555885226200353</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.004569127920991</v>
@@ -38716,7 +38488,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.582888441243889</v>
+        <v>1.54674661924621</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.098950572393433</v>
@@ -38805,7 +38577,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.659487494105529</v>
+        <v>1.611239172633253</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.181059503899082</v>
@@ -38894,7 +38666,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.66479015097685</v>
+        <v>1.615719062755837</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.246942540061846</v>
@@ -38983,7 +38755,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.67503146614983</v>
+        <v>1.625937878062382</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.201782870583843</v>
@@ -39072,7 +38844,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.686790839223157</v>
+        <v>1.636182420901347</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.245333640140096</v>
@@ -39161,7 +38933,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.696379671701715</v>
+        <v>1.645888975069308</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.45628815209087</v>
@@ -39250,7 +39022,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.690888177881181</v>
+        <v>1.641939173846701</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.729587031176367</v>
@@ -39339,7 +39111,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.692570657859935</v>
+        <v>1.645619585726052</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.632275762660552</v>
@@ -39428,7 +39200,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.690093376007886</v>
+        <v>1.647057765739679</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.706953187249822</v>
@@ -39517,7 +39289,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.693846296916623</v>
+        <v>1.647335524258071</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.554678102160839</v>
@@ -39606,7 +39378,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.693896717625754</v>
+        <v>1.648410347219676</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.94998930866721</v>
@@ -39695,7 +39467,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.691628820243115</v>
+        <v>1.646076291782638</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.652527972722433</v>
@@ -39784,7 +39556,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.704195096808547</v>
+        <v>1.648793338482754</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.926929198715818</v>
@@ -39873,7 +39645,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.712711891128863</v>
+        <v>1.644930995367822</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.850604677539147</v>
@@ -39962,7 +39734,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.708934600773005</v>
+        <v>1.659614871856585</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.405422737437105</v>
@@ -40051,7 +39823,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.713066294647727</v>
+        <v>1.668009011461039</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.780393431035127</v>
@@ -40140,7 +39912,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.723100380583143</v>
+        <v>1.673330335307243</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.822818993438816</v>
@@ -40229,7 +40001,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.718092768087653</v>
+        <v>1.664877647211484</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.549017079913517</v>
@@ -40318,7 +40090,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.711315329240236</v>
+        <v>1.65264300033451</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.904743435899091</v>
@@ -40407,7 +40179,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.701168475707904</v>
+        <v>1.6423197641057</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.781214778491003</v>
@@ -40496,7 +40268,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.70393443296196</v>
+        <v>1.646636260572629</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.110000976105242</v>
@@ -40585,7 +40357,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.802277624365808</v>
+        <v>1.757891440914229</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.203705160853345</v>
@@ -40871,7 +40643,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.764399804118321</v>
+        <v>1.767722937017525</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.460064099927365</v>
@@ -40960,7 +40732,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.766296880385398</v>
+        <v>1.770968951982157</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.413907094397634</v>
@@ -41049,7 +40821,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.755774574617784</v>
+        <v>1.768820438380881</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.488474225972508</v>
@@ -41138,7 +40910,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.751531273933485</v>
+        <v>1.765616043993803</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.457557811247084</v>
@@ -41227,7 +40999,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.741179619011389</v>
+        <v>1.756580999128955</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.856230425771714</v>
@@ -41316,7 +41088,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.741128827591526</v>
+        <v>1.755325888840342</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.915227790561665</v>
@@ -41405,7 +41177,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.739136378850746</v>
+        <v>1.750582636728623</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.936715210019285</v>
@@ -41494,7 +41266,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.741400760767877</v>
+        <v>1.754273238603795</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.937030298615581</v>
@@ -41583,7 +41355,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.729866648341194</v>
+        <v>1.748799003275175</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.052573187193163</v>
@@ -41672,7 +41444,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.725172593030285</v>
+        <v>1.73700012369867</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.877487654179613</v>
@@ -41761,7 +41533,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.721705043724229</v>
+        <v>1.735356226729686</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.797087844981786</v>
@@ -41850,7 +41622,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.712085297631228</v>
+        <v>1.726235135674923</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.793218675916058</v>
@@ -41939,7 +41711,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.70541463395359</v>
+        <v>1.727080074186097</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.526285604566206</v>
@@ -42028,7 +41800,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.68228253035721</v>
+        <v>1.696252854605574</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.538188664272512</v>
@@ -42117,7 +41889,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.688290098401976</v>
+        <v>1.697523079395961</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.7080459626247</v>
@@ -42206,7 +41978,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.688570685564952</v>
+        <v>1.690191880158235</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.388840068792461</v>
@@ -42295,7 +42067,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.675412870445387</v>
+        <v>1.678158044400024</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.682466432368624</v>
@@ -42384,7 +42156,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.675130374479686</v>
+        <v>1.675040606406953</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.657586304934032</v>
@@ -42473,7 +42245,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.648105117784697</v>
+        <v>1.650953569354234</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.382249399585714</v>
@@ -42562,7 +42334,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.602501539795799</v>
+        <v>1.597670937584553</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.896796427416056</v>
@@ -42651,7 +42423,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.605885155764742</v>
+        <v>1.599105279275423</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.862717501831364</v>
@@ -42740,7 +42512,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.606959011060897</v>
+        <v>1.598450381982452</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.909670724651504</v>
@@ -42829,7 +42601,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.611175731808129</v>
+        <v>1.600254815206227</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.846509738451754</v>
@@ -42918,7 +42690,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.607021976510754</v>
+        <v>1.595131914109589</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.787619438111689</v>
@@ -43007,7 +42779,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.604014680573006</v>
+        <v>1.596445494421165</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.69826235912319</v>
@@ -43096,7 +42868,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.617969593061362</v>
+        <v>1.606495128039545</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.844837443182715</v>
@@ -43185,7 +42957,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.632184232163021</v>
+        <v>1.613495674376225</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.738699728779628</v>
@@ -43274,7 +43046,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.628685933229085</v>
+        <v>1.609557624833864</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.920503497279858</v>
@@ -43363,7 +43135,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.617185914994989</v>
+        <v>1.600822634182254</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.852131626266168</v>
@@ -43452,7 +43224,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.606583625538447</v>
+        <v>1.592029178695709</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.78910381951828</v>
@@ -43541,7 +43313,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.59704421770105</v>
+        <v>1.590281854423919</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.861832700059769</v>
@@ -43630,7 +43402,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.594297422195295</v>
+        <v>1.593569354597518</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.813364849963109</v>
@@ -43719,7 +43491,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.588663664440163</v>
+        <v>1.589579648410475</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.82996783219967</v>
@@ -43808,7 +43580,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.609195391582388</v>
+        <v>1.605761318704204</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.746586503380644</v>
@@ -43897,7 +43669,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.609576809792731</v>
+        <v>1.60489811172532</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.965772117274943</v>
@@ -43986,7 +43758,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.592391426063651</v>
+        <v>1.589791092649835</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.802921841392227</v>
@@ -44075,7 +43847,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.594450305730413</v>
+        <v>1.601093585549197</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.993058873939509</v>
@@ -44164,7 +43936,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.691506709387953</v>
+        <v>1.697499147020928</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.377913454861186</v>
@@ -44253,7 +44025,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.719812228271313</v>
+        <v>1.732443100778369</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.463344907149604</v>
@@ -44342,7 +44114,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.72363879945658</v>
+        <v>1.737105994997369</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.482751862161918</v>
@@ -44431,7 +44203,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.725136121821337</v>
+        <v>1.737797564327366</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.472564882484675</v>
@@ -44520,7 +44292,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.700480029363313</v>
+        <v>1.716527805347591</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.510437772534231</v>
@@ -44609,7 +44381,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.703724687414229</v>
+        <v>1.719488418286919</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.509862237532078</v>
@@ -44698,7 +44470,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.71187641370145</v>
+        <v>1.72783653564488</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.468563034888271</v>
@@ -44787,7 +44559,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.718787055578155</v>
+        <v>1.729703774909378</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.356878584061514</v>
@@ -44876,7 +44648,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.743617694978328</v>
+        <v>1.751856638398709</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.465431414919123</v>
@@ -44965,7 +44737,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.746614192263136</v>
+        <v>1.756956633974349</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.484139198761837</v>
@@ -45054,7 +44826,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.751706125744456</v>
+        <v>1.763118829789502</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.475008755762926</v>
@@ -45143,7 +44915,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.755756826061698</v>
+        <v>1.767555761950385</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.464442461755604</v>
@@ -45232,7 +45004,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.754297351555978</v>
+        <v>1.767124708244268</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.468788361343915</v>
@@ -45321,7 +45093,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.76239864232594</v>
+        <v>1.771998619640132</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.46746424016668</v>
@@ -45410,7 +45182,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.738465032462457</v>
+        <v>1.746483303135511</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.419886338749563</v>
@@ -45499,7 +45271,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.669019634068403</v>
+        <v>1.677307744701672</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.058070985885415</v>
@@ -45588,7 +45360,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.605651646466952</v>
+        <v>1.604798758216583</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.739217155704679</v>
@@ -45677,7 +45449,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.583366826578461</v>
+        <v>1.58982950557628</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.80253955723279</v>
@@ -45766,7 +45538,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.592926212312829</v>
+        <v>1.596074788879613</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.551573986390006</v>
@@ -45855,7 +45627,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.619303294241692</v>
+        <v>1.617968992157184</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.867177557649401</v>
@@ -45944,7 +45716,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.620231104715635</v>
+        <v>1.620488956434055</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.031147673312811</v>
@@ -46033,7 +45805,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.630592942403713</v>
+        <v>1.631367836789555</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.887248867054272</v>
@@ -46122,7 +45894,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.634754468873532</v>
+        <v>1.635840870704458</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.076977959058496</v>
@@ -46211,7 +45983,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.626662650750404</v>
+        <v>1.62600152156652</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.067869222220466</v>
@@ -46300,7 +46072,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.62239450742322</v>
+        <v>1.617412306498514</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.796565187072364</v>
@@ -46389,7 +46161,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.619124142714491</v>
+        <v>1.601706732650305</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.136669495369675</v>
@@ -46478,7 +46250,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.612811523816849</v>
+        <v>1.599648786349046</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.940308464403847</v>
@@ -46567,7 +46339,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.628043043760832</v>
+        <v>1.611856191945719</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.020109878866169</v>
@@ -46656,7 +46428,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.637821738811179</v>
+        <v>1.626996882795362</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.178623072922167</v>
@@ -46745,7 +46517,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.685301004165682</v>
+        <v>1.673004769644771</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.512135203484561</v>
@@ -46834,7 +46606,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.681667645627946</v>
+        <v>1.660495942446543</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.462756991889143</v>
@@ -46923,7 +46695,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.680111374365327</v>
+        <v>1.661794769429642</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.085786516859182</v>
@@ -47012,7 +46784,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.693227939050657</v>
+        <v>1.669409037923378</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.524941769146552</v>
@@ -47101,7 +46873,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.680346442407929</v>
+        <v>1.661495924670459</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.806838955924761</v>
@@ -47190,7 +46962,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.696226927179323</v>
+        <v>1.679755523275932</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.660660670903065</v>
@@ -47279,7 +47051,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.698566676649293</v>
+        <v>1.676430973831649</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.739394822779234</v>
@@ -47368,7 +47140,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.689047932204636</v>
+        <v>1.67044187487405</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.375509734414353</v>
@@ -47457,7 +47229,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.682875252569326</v>
+        <v>1.66688639982223</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.480297253036412</v>
@@ -47546,7 +47318,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.693507114131784</v>
+        <v>1.673725803307363</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.338209313816552</v>
@@ -47635,7 +47407,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.698327529894989</v>
+        <v>1.677970842650649</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.693456341817865</v>
@@ -47724,7 +47496,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.712036548027776</v>
+        <v>1.697022479202827</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.429275356495953</v>
@@ -47813,7 +47585,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.720005188663296</v>
+        <v>1.702002238339173</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.730624719793628</v>
@@ -47902,7 +47674,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.700558700126438</v>
+        <v>1.687623268179195</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.352367571996749</v>
@@ -47991,7 +47763,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.823350644035321</v>
+        <v>1.80962997567423</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.171331536419083</v>
@@ -48277,7 +48049,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.413375215337738</v>
+        <v>1.435560508428118</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.226242020148362</v>
@@ -48366,7 +48138,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.434148824127364</v>
+        <v>1.455359377251414</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.185690750853069</v>
@@ -48455,7 +48227,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.428349053367665</v>
+        <v>1.451098953348245</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.178734496048957</v>
@@ -48544,7 +48316,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.44781344868228</v>
+        <v>1.465434831256626</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.214664953498356</v>
@@ -48633,7 +48405,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.420368694517545</v>
+        <v>1.439779418117118</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.145569017581007</v>
@@ -48722,7 +48494,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.403892803989777</v>
+        <v>1.421411377309618</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.182326506435334</v>
@@ -48811,7 +48583,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.400699817981833</v>
+        <v>1.415504116208929</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.160243713121462</v>
@@ -48900,7 +48672,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.43198535231854</v>
+        <v>1.445435592612258</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.928536678280289</v>
@@ -48989,7 +48761,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.418653854239651</v>
+        <v>1.42886384517928</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.183820300347139</v>
@@ -49078,7 +48850,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.42298606043148</v>
+        <v>1.434581372816526</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.139728044737758</v>
@@ -49167,7 +48939,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.433545057413809</v>
+        <v>1.444307557215672</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.225509551664486</v>
@@ -49256,7 +49028,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.391270954234143</v>
+        <v>1.407027058708457</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.169787308746741</v>
@@ -49345,7 +49117,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.406911428856981</v>
+        <v>1.419635120011811</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.901161114076787</v>
@@ -49434,7 +49206,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.401415481038141</v>
+        <v>1.412896952945928</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.993280672096782</v>
@@ -49523,7 +49295,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.407872398405163</v>
+        <v>1.421772057146748</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.050526269527747</v>
@@ -49612,7 +49384,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.437239131204501</v>
+        <v>1.44630932346857</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.18069002892878</v>
@@ -49701,7 +49473,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.431978602799146</v>
+        <v>1.442786778903657</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.075686342414096</v>
@@ -49790,7 +49562,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.408623767704029</v>
+        <v>1.417536420654757</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.136668722022564</v>
@@ -49879,7 +49651,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.421827643585077</v>
+        <v>1.433360378870608</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.025837408111221</v>
@@ -49968,7 +49740,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.406778818533234</v>
+        <v>1.416804933717529</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.083946176162482</v>
@@ -50057,7 +49829,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.406011174126655</v>
+        <v>1.418118418316243</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.165674778947373</v>
@@ -50146,7 +49918,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.40138046125167</v>
+        <v>1.416484245266293</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.114124580728108</v>
@@ -50235,7 +50007,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.398701800842482</v>
+        <v>1.412478701618285</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.117593921536799</v>
@@ -50324,7 +50096,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.417045890617115</v>
+        <v>1.433226288898425</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.063777673373568</v>
@@ -50413,7 +50185,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.412540014046347</v>
+        <v>1.426558604996649</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.055046235693892</v>
@@ -50502,7 +50274,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.440082625135654</v>
+        <v>1.446591181002976</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.171702753938696</v>
@@ -50591,7 +50363,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.492347812845749</v>
+        <v>1.490251448089561</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.035201888813793</v>
@@ -50680,7 +50452,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.467415527784163</v>
+        <v>1.46080352431673</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.022634920638688</v>
@@ -50769,7 +50541,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.472907826064175</v>
+        <v>1.46565906105227</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.055707260457678</v>
@@ -50858,7 +50630,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.476304506421713</v>
+        <v>1.468883564852914</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.029031635581135</v>
@@ -50947,7 +50719,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.511522064982494</v>
+        <v>1.494411616338295</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.223944474369437</v>
@@ -51036,7 +50808,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.4831577853598</v>
+        <v>1.473532556592777</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.340317984985611</v>
@@ -51125,7 +50897,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.505106371708797</v>
+        <v>1.495226656252316</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.178031411583616</v>
@@ -51214,7 +50986,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.470054359371772</v>
+        <v>1.461568376010149</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.102255487035905</v>
@@ -51303,7 +51075,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.462400883701426</v>
+        <v>1.455148658599088</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.104079442950162</v>
@@ -51392,7 +51164,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.489525299336627</v>
+        <v>1.477259641971507</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.002931329480094</v>
@@ -51481,7 +51253,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.49786987743768</v>
+        <v>1.48339700089205</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.127321945490474</v>
@@ -51570,7 +51342,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.505188635315269</v>
+        <v>1.502058272078205</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.21884471682745</v>
@@ -51659,7 +51431,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.470507625839642</v>
+        <v>1.475043936523387</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.189434032834148</v>
@@ -51748,7 +51520,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.466143410402888</v>
+        <v>1.473665082424838</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.147464224136025</v>
@@ -51837,7 +51609,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.460781795204146</v>
+        <v>1.471017491609425</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.144311176919456</v>
@@ -51926,7 +51698,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.440314969591129</v>
+        <v>1.449443896004319</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.158264834078839</v>
@@ -52015,7 +51787,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.457486140921308</v>
+        <v>1.470977159323558</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.111475399836268</v>
@@ -52104,7 +51876,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.455184117347899</v>
+        <v>1.471233150312969</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.130521279353046</v>
@@ -52193,7 +51965,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.455704466670654</v>
+        <v>1.472449840858723</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.117744207339242</v>
@@ -52282,7 +52054,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.478832121986825</v>
+        <v>1.500492749764674</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.021837120702278</v>
@@ -52371,7 +52143,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.481470053627375</v>
+        <v>1.502616406240121</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.15764319083219</v>
@@ -52460,7 +52232,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.480174507284463</v>
+        <v>1.501533709557786</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.044288052982522</v>
@@ -52549,7 +52321,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.538266607462192</v>
+        <v>1.553170628467681</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.032102325006672</v>
@@ -52638,7 +52410,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.543468854544582</v>
+        <v>1.561628195361188</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.004791088945732</v>
@@ -52727,7 +52499,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.537650925901892</v>
+        <v>1.560289598012508</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.028284445715705</v>
@@ -52816,7 +52588,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.474928808195977</v>
+        <v>1.502267530852212</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.1126740736234</v>
@@ -52905,7 +52677,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.462882516974946</v>
+        <v>1.483830308389857</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.071217643688997</v>
@@ -52994,7 +52766,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.50742570943656</v>
+        <v>1.520893536132623</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.051518980836175</v>
@@ -53083,7 +52855,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.45986968329369</v>
+        <v>1.474692650040031</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.965471687978981</v>
@@ -53172,7 +52944,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.467062029793049</v>
+        <v>1.475830385947212</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.061394635338376</v>
@@ -53261,7 +53033,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.482624014456859</v>
+        <v>1.49599542844999</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.015776685299512</v>
@@ -53350,7 +53122,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.434233695518533</v>
+        <v>1.449269071362324</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.052496304892932</v>
@@ -53439,7 +53211,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.414591372278907</v>
+        <v>1.428316041937134</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.013875463375673</v>
@@ -53528,7 +53300,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.396489319635691</v>
+        <v>1.404771588977769</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.039594882792572</v>
@@ -53617,7 +53389,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.384540742137188</v>
+        <v>1.391047015438031</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.101693414104805</v>
@@ -53706,7 +53478,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.395071503101061</v>
+        <v>1.40198957182352</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.131078420141108</v>
@@ -53795,7 +53567,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.368144669156894</v>
+        <v>1.376294659692973</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.129813062623313</v>
@@ -53884,7 +53656,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.376048749660072</v>
+        <v>1.384458934160098</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.145632547723447</v>
@@ -53973,7 +53745,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.374540433734388</v>
+        <v>1.382995737486221</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.131067301001896</v>
@@ -54062,7 +53834,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.358311687145749</v>
+        <v>1.366980984184654</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.274155129357009</v>
@@ -54151,7 +53923,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.393430547310138</v>
+        <v>1.399374167962555</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.162762297662495</v>
@@ -54240,7 +54012,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.378753220125624</v>
+        <v>1.384451366026224</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.216109601608821</v>
@@ -54329,7 +54101,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.396839928229599</v>
+        <v>1.401118287800093</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.114187532973091</v>
@@ -54418,7 +54190,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.408233984836285</v>
+        <v>1.413618879032587</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.157390816975951</v>
@@ -54507,7 +54279,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.400586357048807</v>
+        <v>1.3974188591409</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.159786157778626</v>
@@ -54596,7 +54368,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.400777365807781</v>
+        <v>1.404967944168149</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.119079011087358</v>
@@ -54685,7 +54457,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.430257376597604</v>
+        <v>1.431824559845375</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.153703943890746</v>
@@ -54774,7 +54546,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.445409010588202</v>
+        <v>1.44757982183952</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.133604895258892</v>
@@ -54863,7 +54635,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.437565639375221</v>
+        <v>1.441308285098331</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.226370422937919</v>
@@ -54952,7 +54724,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.457494068048167</v>
+        <v>1.466223133920809</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.225138394953084</v>
@@ -55041,7 +54813,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.449469925264084</v>
+        <v>1.456700716790649</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.189599985636959</v>
@@ -55130,7 +54902,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.502280136029616</v>
+        <v>1.503051761065298</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.259932527599385</v>
@@ -55219,7 +54991,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.493384971550125</v>
+        <v>1.493743012033682</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.12477543675829</v>
@@ -55308,7 +55080,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.490906590912563</v>
+        <v>1.491003002656825</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.13497533079184</v>
@@ -55397,7 +55169,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.59734635724158</v>
+        <v>1.602626875457402</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.203339564159378</v>
